--- a/CMS/excel_exports/post/post_alarms_20240510.xlsx
+++ b/CMS/excel_exports/post/post_alarms_20240510.xlsx
@@ -8,17 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SergioPaniagua\Documents\CMS_Testing\CMS\excel_exports\post\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E09028-D0DE-4079-9376-5A77872385DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5863AF-6CC8-4697-BCC2-1D08AB7CBB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$219</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sheet1 (2)'!$A$1:$K$205</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="635">
   <si>
     <t>Severity</t>
   </si>
@@ -1897,33 +1895,9 @@
     <t>Test Comment</t>
   </si>
   <si>
-    <t>2024.05.09 06:19:55.039</t>
-  </si>
-  <si>
-    <t>DMA_TEP_0303_04_DS</t>
-  </si>
-  <si>
-    <t>Tunnel Drainage Pump - Duty Selection</t>
-  </si>
-  <si>
-    <t>Risk of track flooding!</t>
-  </si>
-  <si>
-    <t>2024.05.09 06:19:12.190</t>
-  </si>
-  <si>
-    <t>DMA_TEP_0301_02_DS</t>
-  </si>
-  <si>
     <t>TIAS</t>
   </si>
   <si>
-    <t>2024.05.09 00:01:03.368</t>
-  </si>
-  <si>
-    <t>PKV_TEP_0303_04_DS</t>
-  </si>
-  <si>
     <t>Servers Comms</t>
   </si>
   <si>
@@ -1942,87 +1916,24 @@
     <t>PSD obstructed</t>
   </si>
   <si>
-    <t>2024.05.08 21:04:39.043</t>
-  </si>
-  <si>
     <t>General fault alarm as a result of loss of power</t>
   </si>
   <si>
-    <t>2024.05.08 14:45:50.248</t>
-  </si>
-  <si>
     <t>Escalators out of service</t>
   </si>
   <si>
-    <t>2024.05.08 14:45:47.249</t>
-  </si>
-  <si>
-    <t>2024.05.08 14:45:47.248</t>
-  </si>
-  <si>
-    <t>2024.05.08 14:34:19.255</t>
-  </si>
-  <si>
     <t>Fire System Currently under Test</t>
   </si>
   <si>
-    <t>2024.05.08 14:21:46.187</t>
-  </si>
-  <si>
-    <t>2024.05.08 14:20:07.297</t>
-  </si>
-  <si>
-    <t>2024.05.08 14:01:44.230</t>
-  </si>
-  <si>
     <t>Door forced open without using a valid card</t>
   </si>
   <si>
-    <t>2024.05.08 08:38:49.624</t>
-  </si>
-  <si>
     <t>CMS-ESS Interface not connected</t>
   </si>
   <si>
-    <t>2024.05.06 16:27:06.174</t>
-  </si>
-  <si>
-    <t>2024.05.06 16:26:56.202</t>
-  </si>
-  <si>
     <t>PSD isolated during a blockade</t>
   </si>
   <si>
-    <t>2024.05.06 09:10:41.883</t>
-  </si>
-  <si>
-    <t>2024.05.06 09:10:38.878</t>
-  </si>
-  <si>
-    <t>2024.05.06 09:10:38.769</t>
-  </si>
-  <si>
-    <t>2024.05.06 09:09:02.567</t>
-  </si>
-  <si>
-    <t>DMA_ESC_0012</t>
-  </si>
-  <si>
-    <t>Escalator 12 Bank 7 (B1 Basement to GF Gound Floor)</t>
-  </si>
-  <si>
-    <t>2024.05.06 09:09:01.758</t>
-  </si>
-  <si>
-    <t>DMA_ESC_0011</t>
-  </si>
-  <si>
-    <t>Escalator 11 Bank 7 (B1 Basement to GF Gound Floor)</t>
-  </si>
-  <si>
-    <t>2024.05.06 09:08:45.409</t>
-  </si>
-  <si>
     <t xml:space="preserve">Currently not connected to Sunshine </t>
   </si>
   <si>
@@ -2030,18 +1941,6 @@
   </si>
   <si>
     <t>Fire Panel Fault</t>
-  </si>
-  <si>
-    <t>2024.05.06 09:08:38.066</t>
-  </si>
-  <si>
-    <t>AEN_ESC_0005</t>
-  </si>
-  <si>
-    <t>Escalator 5 Bank 5 (Concourse to Ground Floor)</t>
-  </si>
-  <si>
-    <t>2024.05.07 11:07:42.004</t>
   </si>
 </sst>
 </file>
@@ -2404,7 +2303,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K219"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
@@ -2461,7 +2359,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2484,7 +2382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2507,10 +2405,10 @@
         <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2533,10 +2431,10 @@
         <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2559,10 +2457,10 @@
         <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2585,10 +2483,10 @@
         <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2611,10 +2509,10 @@
         <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2637,10 +2535,10 @@
         <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2663,10 +2561,10 @@
         <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2689,10 +2587,10 @@
         <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2715,10 +2613,10 @@
         <v>48</v>
       </c>
       <c r="K11" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2741,10 +2639,10 @@
         <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2767,10 +2665,10 @@
         <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2793,10 +2691,10 @@
         <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -2819,10 +2717,10 @@
         <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2845,10 +2743,10 @@
         <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2871,10 +2769,10 @@
         <v>48</v>
       </c>
       <c r="K17" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -2897,10 +2795,10 @@
         <v>48</v>
       </c>
       <c r="K18" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -2923,10 +2821,10 @@
         <v>48</v>
       </c>
       <c r="K19" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2949,10 +2847,10 @@
         <v>20</v>
       </c>
       <c r="K20" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2975,10 +2873,10 @@
         <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -3001,10 +2899,10 @@
         <v>20</v>
       </c>
       <c r="K22" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -3027,10 +2925,10 @@
         <v>30</v>
       </c>
       <c r="K23" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -3053,10 +2951,10 @@
         <v>20</v>
       </c>
       <c r="K24" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -3079,10 +2977,10 @@
         <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -3105,10 +3003,10 @@
         <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -3131,10 +3029,10 @@
         <v>20</v>
       </c>
       <c r="K27" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -3157,10 +3055,10 @@
         <v>15</v>
       </c>
       <c r="K28" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -3183,10 +3081,10 @@
         <v>15</v>
       </c>
       <c r="K29" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -3209,10 +3107,10 @@
         <v>15</v>
       </c>
       <c r="K30" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -3235,10 +3133,10 @@
         <v>15</v>
       </c>
       <c r="K31" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>111</v>
       </c>
@@ -3261,7 +3159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>111</v>
       </c>
@@ -3284,7 +3182,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -3307,7 +3205,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>111</v>
       </c>
@@ -3330,10 +3228,10 @@
         <v>20</v>
       </c>
       <c r="K35" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>111</v>
       </c>
@@ -3356,10 +3254,10 @@
         <v>41</v>
       </c>
       <c r="K36" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>111</v>
       </c>
@@ -3382,10 +3280,10 @@
         <v>48</v>
       </c>
       <c r="K37" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -3408,7 +3306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>111</v>
       </c>
@@ -3431,10 +3329,10 @@
         <v>20</v>
       </c>
       <c r="K39" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -3457,10 +3355,10 @@
         <v>20</v>
       </c>
       <c r="K40" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>111</v>
       </c>
@@ -3483,10 +3381,10 @@
         <v>20</v>
       </c>
       <c r="K41" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>111</v>
       </c>
@@ -3509,10 +3407,10 @@
         <v>20</v>
       </c>
       <c r="K42" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>111</v>
       </c>
@@ -3535,10 +3433,10 @@
         <v>20</v>
       </c>
       <c r="K43" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>149</v>
       </c>
@@ -3561,10 +3459,10 @@
         <v>15</v>
       </c>
       <c r="K44" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>149</v>
       </c>
@@ -3587,7 +3485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>149</v>
       </c>
@@ -3610,7 +3508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>149</v>
       </c>
@@ -3633,7 +3531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>149</v>
       </c>
@@ -3656,7 +3554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>149</v>
       </c>
@@ -3679,7 +3577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>149</v>
       </c>
@@ -3702,7 +3600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -3725,7 +3623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -3748,7 +3646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>149</v>
       </c>
@@ -3771,7 +3669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>149</v>
       </c>
@@ -3794,10 +3692,10 @@
         <v>30</v>
       </c>
       <c r="K54" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>149</v>
       </c>
@@ -3820,10 +3718,10 @@
         <v>30</v>
       </c>
       <c r="K55" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>149</v>
       </c>
@@ -3846,10 +3744,10 @@
         <v>30</v>
       </c>
       <c r="K56" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>149</v>
       </c>
@@ -3872,7 +3770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>149</v>
       </c>
@@ -3895,10 +3793,10 @@
         <v>15</v>
       </c>
       <c r="K58" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>149</v>
       </c>
@@ -3921,10 +3819,10 @@
         <v>15</v>
       </c>
       <c r="K59" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>149</v>
       </c>
@@ -3947,7 +3845,7 @@
         <v>30</v>
       </c>
       <c r="K60" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
@@ -3973,10 +3871,10 @@
         <v>189</v>
       </c>
       <c r="K61" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>149</v>
       </c>
@@ -3999,7 +3897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>149</v>
       </c>
@@ -4022,10 +3920,10 @@
         <v>30</v>
       </c>
       <c r="K63" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>149</v>
       </c>
@@ -4048,10 +3946,10 @@
         <v>15</v>
       </c>
       <c r="K64" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>149</v>
       </c>
@@ -4074,10 +3972,10 @@
         <v>15</v>
       </c>
       <c r="K65" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>149</v>
       </c>
@@ -4100,10 +3998,10 @@
         <v>30</v>
       </c>
       <c r="K66" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>149</v>
       </c>
@@ -4126,10 +4024,10 @@
         <v>30</v>
       </c>
       <c r="K67" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>149</v>
       </c>
@@ -4152,10 +4050,10 @@
         <v>30</v>
       </c>
       <c r="K68" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>149</v>
       </c>
@@ -4178,10 +4076,10 @@
         <v>30</v>
       </c>
       <c r="K69" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>149</v>
       </c>
@@ -4204,10 +4102,10 @@
         <v>30</v>
       </c>
       <c r="K70" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -4230,10 +4128,10 @@
         <v>30</v>
       </c>
       <c r="K71" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>149</v>
       </c>
@@ -4256,10 +4154,10 @@
         <v>30</v>
       </c>
       <c r="K72" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>149</v>
       </c>
@@ -4282,10 +4180,10 @@
         <v>30</v>
       </c>
       <c r="K73" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>149</v>
       </c>
@@ -4308,10 +4206,10 @@
         <v>30</v>
       </c>
       <c r="K74" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -4334,10 +4232,10 @@
         <v>30</v>
       </c>
       <c r="K75" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>149</v>
       </c>
@@ -4360,10 +4258,10 @@
         <v>30</v>
       </c>
       <c r="K76" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>149</v>
       </c>
@@ -4386,10 +4284,10 @@
         <v>30</v>
       </c>
       <c r="K77" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>149</v>
       </c>
@@ -4412,10 +4310,10 @@
         <v>30</v>
       </c>
       <c r="K78" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>149</v>
       </c>
@@ -4438,10 +4336,10 @@
         <v>30</v>
       </c>
       <c r="K79" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>149</v>
       </c>
@@ -4464,10 +4362,10 @@
         <v>30</v>
       </c>
       <c r="K80" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>149</v>
       </c>
@@ -4490,10 +4388,10 @@
         <v>30</v>
       </c>
       <c r="K81" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>149</v>
       </c>
@@ -4516,10 +4414,10 @@
         <v>30</v>
       </c>
       <c r="K82" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>149</v>
       </c>
@@ -4542,10 +4440,10 @@
         <v>30</v>
       </c>
       <c r="K83" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>149</v>
       </c>
@@ -4568,10 +4466,10 @@
         <v>30</v>
       </c>
       <c r="K84" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>149</v>
       </c>
@@ -4594,10 +4492,10 @@
         <v>30</v>
       </c>
       <c r="K85" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>149</v>
       </c>
@@ -4620,7 +4518,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>149</v>
       </c>
@@ -4643,10 +4541,10 @@
         <v>30</v>
       </c>
       <c r="K87" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>149</v>
       </c>
@@ -4669,10 +4567,10 @@
         <v>30</v>
       </c>
       <c r="K88" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>149</v>
       </c>
@@ -4695,10 +4593,10 @@
         <v>30</v>
       </c>
       <c r="K89" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>149</v>
       </c>
@@ -4721,7 +4619,7 @@
         <v>30</v>
       </c>
       <c r="K90" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
@@ -4747,10 +4645,10 @@
         <v>189</v>
       </c>
       <c r="K91" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>149</v>
       </c>
@@ -4773,10 +4671,10 @@
         <v>30</v>
       </c>
       <c r="K92" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>149</v>
       </c>
@@ -4799,7 +4697,7 @@
         <v>30</v>
       </c>
       <c r="K93" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
@@ -4825,10 +4723,10 @@
         <v>189</v>
       </c>
       <c r="K94" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>149</v>
       </c>
@@ -4851,10 +4749,10 @@
         <v>30</v>
       </c>
       <c r="K95" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>149</v>
       </c>
@@ -4877,10 +4775,10 @@
         <v>15</v>
       </c>
       <c r="K96" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>149</v>
       </c>
@@ -4903,10 +4801,10 @@
         <v>20</v>
       </c>
       <c r="K97" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>149</v>
       </c>
@@ -4929,10 +4827,10 @@
         <v>20</v>
       </c>
       <c r="K98" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>149</v>
       </c>
@@ -4955,10 +4853,10 @@
         <v>20</v>
       </c>
       <c r="K99" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>149</v>
       </c>
@@ -4981,10 +4879,10 @@
         <v>20</v>
       </c>
       <c r="K100" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>149</v>
       </c>
@@ -5007,10 +4905,10 @@
         <v>20</v>
       </c>
       <c r="K101" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>149</v>
       </c>
@@ -5033,10 +4931,10 @@
         <v>20</v>
       </c>
       <c r="K102" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>149</v>
       </c>
@@ -5059,10 +4957,10 @@
         <v>20</v>
       </c>
       <c r="K103" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>149</v>
       </c>
@@ -5085,10 +4983,10 @@
         <v>20</v>
       </c>
       <c r="K104" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>149</v>
       </c>
@@ -5111,10 +5009,10 @@
         <v>20</v>
       </c>
       <c r="K105" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>149</v>
       </c>
@@ -5137,10 +5035,10 @@
         <v>20</v>
       </c>
       <c r="K106" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>149</v>
       </c>
@@ -5163,10 +5061,10 @@
         <v>20</v>
       </c>
       <c r="K107" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>149</v>
       </c>
@@ -5189,10 +5087,10 @@
         <v>20</v>
       </c>
       <c r="K108" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>149</v>
       </c>
@@ -5215,10 +5113,10 @@
         <v>20</v>
       </c>
       <c r="K109" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>149</v>
       </c>
@@ -5241,10 +5139,10 @@
         <v>20</v>
       </c>
       <c r="K110" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>149</v>
       </c>
@@ -5267,10 +5165,10 @@
         <v>20</v>
       </c>
       <c r="K111" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>149</v>
       </c>
@@ -5293,10 +5191,10 @@
         <v>20</v>
       </c>
       <c r="K112" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>149</v>
       </c>
@@ -5319,10 +5217,10 @@
         <v>20</v>
       </c>
       <c r="K113" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>149</v>
       </c>
@@ -5345,7 +5243,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>149</v>
       </c>
@@ -5368,10 +5266,10 @@
         <v>15</v>
       </c>
       <c r="K115" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>149</v>
       </c>
@@ -5394,10 +5292,10 @@
         <v>15</v>
       </c>
       <c r="K116" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>149</v>
       </c>
@@ -5420,10 +5318,10 @@
         <v>15</v>
       </c>
       <c r="K117" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>149</v>
       </c>
@@ -5446,10 +5344,10 @@
         <v>15</v>
       </c>
       <c r="K118" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>149</v>
       </c>
@@ -5472,10 +5370,10 @@
         <v>15</v>
       </c>
       <c r="K119" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>149</v>
       </c>
@@ -5498,10 +5396,10 @@
         <v>30</v>
       </c>
       <c r="K120" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>149</v>
       </c>
@@ -5524,10 +5422,10 @@
         <v>30</v>
       </c>
       <c r="K121" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>149</v>
       </c>
@@ -5550,10 +5448,10 @@
         <v>48</v>
       </c>
       <c r="K122" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>149</v>
       </c>
@@ -5576,10 +5474,10 @@
         <v>48</v>
       </c>
       <c r="K123" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>149</v>
       </c>
@@ -5602,10 +5500,10 @@
         <v>48</v>
       </c>
       <c r="K124" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>149</v>
       </c>
@@ -5628,10 +5526,10 @@
         <v>48</v>
       </c>
       <c r="K125" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>149</v>
       </c>
@@ -5654,10 +5552,10 @@
         <v>48</v>
       </c>
       <c r="K126" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>149</v>
       </c>
@@ -5680,10 +5578,10 @@
         <v>15</v>
       </c>
       <c r="K127" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>149</v>
       </c>
@@ -5706,10 +5604,10 @@
         <v>20</v>
       </c>
       <c r="K128" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>149</v>
       </c>
@@ -5732,10 +5630,10 @@
         <v>20</v>
       </c>
       <c r="K129" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>149</v>
       </c>
@@ -5758,10 +5656,10 @@
         <v>20</v>
       </c>
       <c r="K130" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>149</v>
       </c>
@@ -5784,10 +5682,10 @@
         <v>20</v>
       </c>
       <c r="K131" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>149</v>
       </c>
@@ -5810,10 +5708,10 @@
         <v>20</v>
       </c>
       <c r="K132" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>149</v>
       </c>
@@ -5836,10 +5734,10 @@
         <v>20</v>
       </c>
       <c r="K133" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>149</v>
       </c>
@@ -5862,10 +5760,10 @@
         <v>30</v>
       </c>
       <c r="K134" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -5888,10 +5786,10 @@
         <v>30</v>
       </c>
       <c r="K135" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -5914,10 +5812,10 @@
         <v>30</v>
       </c>
       <c r="K136" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>149</v>
       </c>
@@ -5940,10 +5838,10 @@
         <v>30</v>
       </c>
       <c r="K137" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>149</v>
       </c>
@@ -5966,10 +5864,10 @@
         <v>30</v>
       </c>
       <c r="K138" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>149</v>
       </c>
@@ -5992,10 +5890,10 @@
         <v>30</v>
       </c>
       <c r="K139" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>149</v>
       </c>
@@ -6018,10 +5916,10 @@
         <v>30</v>
       </c>
       <c r="K140" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>149</v>
       </c>
@@ -6044,10 +5942,10 @@
         <v>15</v>
       </c>
       <c r="K141" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>149</v>
       </c>
@@ -6070,10 +5968,10 @@
         <v>30</v>
       </c>
       <c r="K142" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -6096,10 +5994,10 @@
         <v>30</v>
       </c>
       <c r="K143" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>149</v>
       </c>
@@ -6122,10 +6020,10 @@
         <v>15</v>
       </c>
       <c r="K144" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>149</v>
       </c>
@@ -6148,10 +6046,10 @@
         <v>15</v>
       </c>
       <c r="K145" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>149</v>
       </c>
@@ -6174,10 +6072,10 @@
         <v>15</v>
       </c>
       <c r="K146" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -6200,10 +6098,10 @@
         <v>15</v>
       </c>
       <c r="K147" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>149</v>
       </c>
@@ -6226,10 +6124,10 @@
         <v>15</v>
       </c>
       <c r="K148" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -6252,10 +6150,10 @@
         <v>15</v>
       </c>
       <c r="K149" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -6278,10 +6176,10 @@
         <v>15</v>
       </c>
       <c r="K150" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -6304,10 +6202,10 @@
         <v>15</v>
       </c>
       <c r="K151" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -6330,10 +6228,10 @@
         <v>15</v>
       </c>
       <c r="K152" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>149</v>
       </c>
@@ -6356,10 +6254,10 @@
         <v>30</v>
       </c>
       <c r="K153" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>149</v>
       </c>
@@ -6382,10 +6280,10 @@
         <v>30</v>
       </c>
       <c r="K154" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>149</v>
       </c>
@@ -6408,10 +6306,10 @@
         <v>30</v>
       </c>
       <c r="K155" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>149</v>
       </c>
@@ -6434,10 +6332,10 @@
         <v>30</v>
       </c>
       <c r="K156" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>149</v>
       </c>
@@ -6460,10 +6358,10 @@
         <v>30</v>
       </c>
       <c r="K157" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>149</v>
       </c>
@@ -6486,10 +6384,10 @@
         <v>30</v>
       </c>
       <c r="K158" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>149</v>
       </c>
@@ -6512,10 +6410,10 @@
         <v>30</v>
       </c>
       <c r="K159" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>149</v>
       </c>
@@ -6538,10 +6436,10 @@
         <v>30</v>
       </c>
       <c r="K160" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>149</v>
       </c>
@@ -6564,10 +6462,10 @@
         <v>30</v>
       </c>
       <c r="K161" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>149</v>
       </c>
@@ -6590,10 +6488,10 @@
         <v>30</v>
       </c>
       <c r="K162" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>149</v>
       </c>
@@ -6616,10 +6514,10 @@
         <v>15</v>
       </c>
       <c r="K163" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>149</v>
       </c>
@@ -6642,10 +6540,10 @@
         <v>30</v>
       </c>
       <c r="K164" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>149</v>
       </c>
@@ -6668,7 +6566,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>149</v>
       </c>
@@ -6691,7 +6589,7 @@
         <v>41</v>
       </c>
       <c r="K166" t="s">
-        <v>650</v>
+        <v>631</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.35">
@@ -6723,7 +6621,7 @@
         <v>189</v>
       </c>
       <c r="K167" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.35">
@@ -6755,7 +6653,7 @@
         <v>189</v>
       </c>
       <c r="K168" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.35">
@@ -6787,7 +6685,7 @@
         <v>189</v>
       </c>
       <c r="K169" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.35">
@@ -6819,7 +6717,7 @@
         <v>189</v>
       </c>
       <c r="K170" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.35">
@@ -6851,7 +6749,7 @@
         <v>189</v>
       </c>
       <c r="K171" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.35">
@@ -6883,7 +6781,7 @@
         <v>189</v>
       </c>
       <c r="K172" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.35">
@@ -6915,7 +6813,7 @@
         <v>189</v>
       </c>
       <c r="K173" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.35">
@@ -6947,7 +6845,7 @@
         <v>189</v>
       </c>
       <c r="K174" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.35">
@@ -6979,7 +6877,7 @@
         <v>189</v>
       </c>
       <c r="K175" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.35">
@@ -7011,7 +6909,7 @@
         <v>189</v>
       </c>
       <c r="K176" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.35">
@@ -7043,7 +6941,7 @@
         <v>189</v>
       </c>
       <c r="K177" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.35">
@@ -7075,7 +6973,7 @@
         <v>189</v>
       </c>
       <c r="K178" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.35">
@@ -7107,7 +7005,7 @@
         <v>189</v>
       </c>
       <c r="K179" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.35">
@@ -7139,7 +7037,7 @@
         <v>189</v>
       </c>
       <c r="K180" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.35">
@@ -7171,7 +7069,7 @@
         <v>189</v>
       </c>
       <c r="K181" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.35">
@@ -7203,7 +7101,7 @@
         <v>189</v>
       </c>
       <c r="K182" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.35">
@@ -7235,7 +7133,7 @@
         <v>189</v>
       </c>
       <c r="K183" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.35">
@@ -7267,7 +7165,7 @@
         <v>189</v>
       </c>
       <c r="K184" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.35">
@@ -7299,7 +7197,7 @@
         <v>189</v>
       </c>
       <c r="K185" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.35">
@@ -7331,7 +7229,7 @@
         <v>189</v>
       </c>
       <c r="K186" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.35">
@@ -7363,7 +7261,7 @@
         <v>189</v>
       </c>
       <c r="K187" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.35">
@@ -7395,7 +7293,7 @@
         <v>189</v>
       </c>
       <c r="K188" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.35">
@@ -7427,7 +7325,7 @@
         <v>189</v>
       </c>
       <c r="K189" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.35">
@@ -7459,7 +7357,7 @@
         <v>189</v>
       </c>
       <c r="K190" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.35">
@@ -7491,7 +7389,7 @@
         <v>189</v>
       </c>
       <c r="K191" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.35">
@@ -7523,7 +7421,7 @@
         <v>189</v>
       </c>
       <c r="K192" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.35">
@@ -7555,10 +7453,10 @@
         <v>189</v>
       </c>
       <c r="K193" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>531</v>
       </c>
@@ -7587,7 +7485,7 @@
         <v>48</v>
       </c>
       <c r="K194" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.35">
@@ -7619,10 +7517,10 @@
         <v>189</v>
       </c>
       <c r="K195" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>531</v>
       </c>
@@ -7651,10 +7549,10 @@
         <v>48</v>
       </c>
       <c r="K196" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>531</v>
       </c>
@@ -7683,10 +7581,10 @@
         <v>48</v>
       </c>
       <c r="K197" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>531</v>
       </c>
@@ -7715,10 +7613,10 @@
         <v>48</v>
       </c>
       <c r="K198" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>531</v>
       </c>
@@ -7747,7 +7645,7 @@
         <v>48</v>
       </c>
       <c r="K199" t="s">
-        <v>661</v>
+        <v>632</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.35">
@@ -7779,7 +7677,7 @@
         <v>189</v>
       </c>
       <c r="K200" t="s">
-        <v>661</v>
+        <v>632</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.35">
@@ -7811,7 +7709,7 @@
         <v>189</v>
       </c>
       <c r="K201" t="s">
-        <v>661</v>
+        <v>632</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.35">
@@ -7843,7 +7741,7 @@
         <v>189</v>
       </c>
       <c r="K202" t="s">
-        <v>661</v>
+        <v>632</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.35">
@@ -7875,7 +7773,7 @@
         <v>189</v>
       </c>
       <c r="K203" t="s">
-        <v>661</v>
+        <v>632</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.35">
@@ -7907,7 +7805,7 @@
         <v>189</v>
       </c>
       <c r="K204" t="s">
-        <v>662</v>
+        <v>633</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.35">
@@ -7939,7 +7837,7 @@
         <v>189</v>
       </c>
       <c r="K205" t="s">
-        <v>662</v>
+        <v>633</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.35">
@@ -7971,10 +7869,10 @@
         <v>189</v>
       </c>
       <c r="K206" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>531</v>
       </c>
@@ -8003,10 +7901,10 @@
         <v>15</v>
       </c>
       <c r="K207" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>531</v>
       </c>
@@ -8035,10 +7933,10 @@
         <v>15</v>
       </c>
       <c r="K208" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>531</v>
       </c>
@@ -8067,10 +7965,10 @@
         <v>48</v>
       </c>
       <c r="K209" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>531</v>
       </c>
@@ -8099,10 +7997,10 @@
         <v>15</v>
       </c>
       <c r="K210" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>586</v>
       </c>
@@ -8131,7 +8029,7 @@
         <v>30</v>
       </c>
       <c r="K211" t="s">
-        <v>663</v>
+        <v>634</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.35">
@@ -8163,7 +8061,7 @@
         <v>189</v>
       </c>
       <c r="K212" t="s">
-        <v>663</v>
+        <v>634</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.35">
@@ -8195,7 +8093,7 @@
         <v>189</v>
       </c>
       <c r="K213" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.35">
@@ -8227,7 +8125,7 @@
         <v>189</v>
       </c>
       <c r="K214" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.35">
@@ -8259,7 +8157,7 @@
         <v>189</v>
       </c>
       <c r="K215" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.35">
@@ -8291,7 +8189,7 @@
         <v>189</v>
       </c>
       <c r="K216" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.35">
@@ -8323,7 +8221,7 @@
         <v>189</v>
       </c>
       <c r="K217" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.35">
@@ -8355,7 +8253,7 @@
         <v>189</v>
       </c>
       <c r="K218" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.35">
@@ -8387,5682 +8285,11 @@
         <v>189</v>
       </c>
       <c r="K219" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K219" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="ARN"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B7F689-6B24-46F6-8BD0-F59C186E717C}">
-  <dimension ref="A1:K205"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.7265625" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>619</v>
-      </c>
-      <c r="C2" t="s">
-        <v>620</v>
-      </c>
-      <c r="D2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E2" t="s">
-        <v>622</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>623</v>
-      </c>
-      <c r="C3" t="s">
-        <v>624</v>
-      </c>
-      <c r="D3" t="s">
-        <v>621</v>
-      </c>
-      <c r="E3" t="s">
-        <v>622</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>626</v>
-      </c>
-      <c r="C6" t="s">
-        <v>627</v>
-      </c>
-      <c r="D6" t="s">
-        <v>621</v>
-      </c>
-      <c r="E6" t="s">
-        <v>622</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" t="s">
-        <v>89</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" t="s">
-        <v>93</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" t="s">
-        <v>101</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" t="s">
-        <v>56</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" t="s">
-        <v>56</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" t="s">
-        <v>124</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34" t="s">
-        <v>128</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K34" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" t="s">
-        <v>132</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s">
-        <v>48</v>
-      </c>
-      <c r="K35" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>111</v>
-      </c>
-      <c r="B36" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" t="s">
-        <v>135</v>
-      </c>
-      <c r="E36" t="s">
-        <v>136</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" t="s">
-        <v>140</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" t="s">
-        <v>139</v>
-      </c>
-      <c r="E38" t="s">
-        <v>124</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>20</v>
-      </c>
-      <c r="K38" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" t="s">
-        <v>123</v>
-      </c>
-      <c r="E39" t="s">
-        <v>140</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" t="s">
-        <v>146</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" t="s">
-        <v>144</v>
-      </c>
-      <c r="D41" t="s">
-        <v>145</v>
-      </c>
-      <c r="E41" t="s">
-        <v>148</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>149</v>
-      </c>
-      <c r="B42" t="s">
-        <v>634</v>
-      </c>
-      <c r="C42" t="s">
-        <v>166</v>
-      </c>
-      <c r="D42" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" t="s">
-        <v>158</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>149</v>
-      </c>
-      <c r="B43" t="s">
-        <v>247</v>
-      </c>
-      <c r="C43" t="s">
-        <v>248</v>
-      </c>
-      <c r="D43" t="s">
-        <v>249</v>
-      </c>
-      <c r="E43" t="s">
-        <v>151</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43" t="s">
-        <v>30</v>
-      </c>
-      <c r="K43" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44" t="s">
-        <v>250</v>
-      </c>
-      <c r="C44" t="s">
-        <v>248</v>
-      </c>
-      <c r="D44" t="s">
-        <v>249</v>
-      </c>
-      <c r="E44" t="s">
-        <v>174</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44" t="s">
-        <v>30</v>
-      </c>
-      <c r="K44" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>149</v>
-      </c>
-      <c r="B45" t="s">
-        <v>251</v>
-      </c>
-      <c r="C45" t="s">
-        <v>252</v>
-      </c>
-      <c r="D45" t="s">
-        <v>253</v>
-      </c>
-      <c r="E45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45" t="s">
-        <v>30</v>
-      </c>
-      <c r="K45" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>149</v>
-      </c>
-      <c r="B46" t="s">
-        <v>254</v>
-      </c>
-      <c r="C46" t="s">
-        <v>252</v>
-      </c>
-      <c r="D46" t="s">
-        <v>253</v>
-      </c>
-      <c r="E46" t="s">
-        <v>174</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46" t="s">
-        <v>30</v>
-      </c>
-      <c r="K46" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>149</v>
-      </c>
-      <c r="B47" t="s">
-        <v>636</v>
-      </c>
-      <c r="C47" t="s">
-        <v>205</v>
-      </c>
-      <c r="D47" t="s">
-        <v>206</v>
-      </c>
-      <c r="E47" t="s">
-        <v>207</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47" t="s">
-        <v>30</v>
-      </c>
-      <c r="K47" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>149</v>
-      </c>
-      <c r="B48" t="s">
-        <v>636</v>
-      </c>
-      <c r="C48" t="s">
-        <v>208</v>
-      </c>
-      <c r="D48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E48" t="s">
-        <v>207</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48" t="s">
-        <v>30</v>
-      </c>
-      <c r="K48" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>149</v>
-      </c>
-      <c r="B49" t="s">
-        <v>636</v>
-      </c>
-      <c r="C49" t="s">
-        <v>210</v>
-      </c>
-      <c r="D49" t="s">
-        <v>211</v>
-      </c>
-      <c r="E49" t="s">
-        <v>207</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49" t="s">
-        <v>30</v>
-      </c>
-      <c r="K49" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>149</v>
-      </c>
-      <c r="B50" t="s">
-        <v>636</v>
-      </c>
-      <c r="C50" t="s">
-        <v>212</v>
-      </c>
-      <c r="D50" t="s">
-        <v>213</v>
-      </c>
-      <c r="E50" t="s">
-        <v>207</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50" t="s">
-        <v>30</v>
-      </c>
-      <c r="K50" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>149</v>
-      </c>
-      <c r="B51" t="s">
-        <v>636</v>
-      </c>
-      <c r="C51" t="s">
-        <v>214</v>
-      </c>
-      <c r="D51" t="s">
-        <v>215</v>
-      </c>
-      <c r="E51" t="s">
-        <v>207</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>30</v>
-      </c>
-      <c r="K51" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>149</v>
-      </c>
-      <c r="B52" t="s">
-        <v>636</v>
-      </c>
-      <c r="C52" t="s">
-        <v>216</v>
-      </c>
-      <c r="D52" t="s">
-        <v>217</v>
-      </c>
-      <c r="E52" t="s">
-        <v>207</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52" t="s">
-        <v>30</v>
-      </c>
-      <c r="K52" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>149</v>
-      </c>
-      <c r="B53" t="s">
-        <v>636</v>
-      </c>
-      <c r="C53" t="s">
-        <v>218</v>
-      </c>
-      <c r="D53" t="s">
-        <v>219</v>
-      </c>
-      <c r="E53" t="s">
-        <v>207</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53" t="s">
-        <v>30</v>
-      </c>
-      <c r="K53" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>149</v>
-      </c>
-      <c r="B54" t="s">
-        <v>638</v>
-      </c>
-      <c r="C54" t="s">
-        <v>226</v>
-      </c>
-      <c r="D54" t="s">
-        <v>227</v>
-      </c>
-      <c r="E54" t="s">
-        <v>207</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54" t="s">
-        <v>30</v>
-      </c>
-      <c r="K54" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>149</v>
-      </c>
-      <c r="B55" t="s">
-        <v>638</v>
-      </c>
-      <c r="C55" t="s">
-        <v>228</v>
-      </c>
-      <c r="D55" t="s">
-        <v>229</v>
-      </c>
-      <c r="E55" t="s">
-        <v>207</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55" t="s">
-        <v>30</v>
-      </c>
-      <c r="K55" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>149</v>
-      </c>
-      <c r="B56" t="s">
-        <v>638</v>
-      </c>
-      <c r="C56" t="s">
-        <v>230</v>
-      </c>
-      <c r="D56" t="s">
-        <v>231</v>
-      </c>
-      <c r="E56" t="s">
-        <v>207</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56" t="s">
-        <v>30</v>
-      </c>
-      <c r="K56" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>149</v>
-      </c>
-      <c r="B57" t="s">
-        <v>638</v>
-      </c>
-      <c r="C57" t="s">
-        <v>221</v>
-      </c>
-      <c r="D57" t="s">
-        <v>222</v>
-      </c>
-      <c r="E57" t="s">
-        <v>207</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57" t="s">
-        <v>30</v>
-      </c>
-      <c r="K57" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>149</v>
-      </c>
-      <c r="B58" t="s">
-        <v>639</v>
-      </c>
-      <c r="C58" t="s">
-        <v>233</v>
-      </c>
-      <c r="D58" t="s">
-        <v>234</v>
-      </c>
-      <c r="E58" t="s">
-        <v>207</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58" t="s">
-        <v>30</v>
-      </c>
-      <c r="K58" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>149</v>
-      </c>
-      <c r="B59" t="s">
-        <v>639</v>
-      </c>
-      <c r="C59" t="s">
-        <v>235</v>
-      </c>
-      <c r="D59" t="s">
-        <v>236</v>
-      </c>
-      <c r="E59" t="s">
-        <v>207</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59" t="s">
-        <v>30</v>
-      </c>
-      <c r="K59" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>149</v>
-      </c>
-      <c r="B60" t="s">
-        <v>639</v>
-      </c>
-      <c r="C60" t="s">
-        <v>195</v>
-      </c>
-      <c r="D60" t="s">
-        <v>196</v>
-      </c>
-      <c r="E60" t="s">
-        <v>207</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60" t="s">
-        <v>30</v>
-      </c>
-      <c r="K60" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>149</v>
-      </c>
-      <c r="B61" t="s">
-        <v>639</v>
-      </c>
-      <c r="C61" t="s">
-        <v>237</v>
-      </c>
-      <c r="D61" t="s">
-        <v>238</v>
-      </c>
-      <c r="E61" t="s">
-        <v>207</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61" t="s">
-        <v>30</v>
-      </c>
-      <c r="K61" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>149</v>
-      </c>
-      <c r="B62" t="s">
-        <v>639</v>
-      </c>
-      <c r="C62" t="s">
-        <v>224</v>
-      </c>
-      <c r="D62" t="s">
-        <v>225</v>
-      </c>
-      <c r="E62" t="s">
-        <v>207</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62" t="s">
-        <v>30</v>
-      </c>
-      <c r="K62" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>149</v>
-      </c>
-      <c r="B63" t="s">
-        <v>640</v>
-      </c>
-      <c r="C63" t="s">
-        <v>218</v>
-      </c>
-      <c r="D63" t="s">
-        <v>219</v>
-      </c>
-      <c r="E63" t="s">
-        <v>197</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63" t="s">
-        <v>30</v>
-      </c>
-      <c r="K63" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>149</v>
-      </c>
-      <c r="B64" t="s">
-        <v>255</v>
-      </c>
-      <c r="C64" t="s">
-        <v>256</v>
-      </c>
-      <c r="D64" t="s">
-        <v>257</v>
-      </c>
-      <c r="E64" t="s">
-        <v>170</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" t="s">
-        <v>189</v>
-      </c>
-      <c r="K64" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>149</v>
-      </c>
-      <c r="B65" t="s">
-        <v>642</v>
-      </c>
-      <c r="C65" t="s">
-        <v>233</v>
-      </c>
-      <c r="D65" t="s">
-        <v>234</v>
-      </c>
-      <c r="E65" t="s">
-        <v>197</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65" t="s">
-        <v>30</v>
-      </c>
-      <c r="K65" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>149</v>
-      </c>
-      <c r="B66" t="s">
-        <v>643</v>
-      </c>
-      <c r="C66" t="s">
-        <v>235</v>
-      </c>
-      <c r="D66" t="s">
-        <v>236</v>
-      </c>
-      <c r="E66" t="s">
-        <v>197</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66" t="s">
-        <v>30</v>
-      </c>
-      <c r="K66" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>149</v>
-      </c>
-      <c r="B67" t="s">
-        <v>258</v>
-      </c>
-      <c r="C67" t="s">
-        <v>224</v>
-      </c>
-      <c r="D67" t="s">
-        <v>225</v>
-      </c>
-      <c r="E67" t="s">
-        <v>197</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67" t="s">
-        <v>30</v>
-      </c>
-      <c r="K67" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>149</v>
-      </c>
-      <c r="B68" t="s">
-        <v>259</v>
-      </c>
-      <c r="C68" t="s">
-        <v>226</v>
-      </c>
-      <c r="D68" t="s">
-        <v>227</v>
-      </c>
-      <c r="E68" t="s">
-        <v>197</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68" t="s">
-        <v>30</v>
-      </c>
-      <c r="K68" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>149</v>
-      </c>
-      <c r="B69" t="s">
-        <v>644</v>
-      </c>
-      <c r="C69" t="s">
-        <v>242</v>
-      </c>
-      <c r="D69" t="s">
-        <v>243</v>
-      </c>
-      <c r="E69" t="s">
-        <v>151</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" t="s">
-        <v>30</v>
-      </c>
-      <c r="K69" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>149</v>
-      </c>
-      <c r="B70" t="s">
-        <v>644</v>
-      </c>
-      <c r="C70" t="s">
-        <v>242</v>
-      </c>
-      <c r="D70" t="s">
-        <v>243</v>
-      </c>
-      <c r="E70" t="s">
-        <v>174</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70" t="s">
-        <v>30</v>
-      </c>
-      <c r="K70" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>149</v>
-      </c>
-      <c r="B71" t="s">
-        <v>260</v>
-      </c>
-      <c r="C71" t="s">
-        <v>261</v>
-      </c>
-      <c r="D71" t="s">
-        <v>262</v>
-      </c>
-      <c r="E71" t="s">
-        <v>185</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71" t="s">
-        <v>189</v>
-      </c>
-      <c r="K71" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>149</v>
-      </c>
-      <c r="B72" t="s">
-        <v>263</v>
-      </c>
-      <c r="C72" t="s">
-        <v>264</v>
-      </c>
-      <c r="D72" t="s">
-        <v>265</v>
-      </c>
-      <c r="E72" t="s">
-        <v>151</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72" t="s">
-        <v>30</v>
-      </c>
-      <c r="K72" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>149</v>
-      </c>
-      <c r="B73" t="s">
-        <v>266</v>
-      </c>
-      <c r="C73" t="s">
-        <v>267</v>
-      </c>
-      <c r="D73" t="s">
-        <v>268</v>
-      </c>
-      <c r="E73" t="s">
-        <v>174</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73" t="s">
-        <v>15</v>
-      </c>
-      <c r="K73" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" t="s">
-        <v>646</v>
-      </c>
-      <c r="C74" t="s">
-        <v>240</v>
-      </c>
-      <c r="D74" t="s">
-        <v>184</v>
-      </c>
-      <c r="E74" t="s">
-        <v>185</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74" t="s">
-        <v>30</v>
-      </c>
-      <c r="K74" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>149</v>
-      </c>
-      <c r="B75" t="s">
-        <v>269</v>
-      </c>
-      <c r="C75" t="s">
-        <v>270</v>
-      </c>
-      <c r="D75" t="s">
-        <v>271</v>
-      </c>
-      <c r="E75" t="s">
-        <v>272</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75" t="s">
-        <v>20</v>
-      </c>
-      <c r="K75" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>149</v>
-      </c>
-      <c r="B76" t="s">
-        <v>273</v>
-      </c>
-      <c r="C76" t="s">
-        <v>274</v>
-      </c>
-      <c r="D76" t="s">
-        <v>275</v>
-      </c>
-      <c r="E76" t="s">
-        <v>272</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76" t="s">
-        <v>20</v>
-      </c>
-      <c r="K76" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>149</v>
-      </c>
-      <c r="B77" t="s">
-        <v>273</v>
-      </c>
-      <c r="C77" t="s">
-        <v>276</v>
-      </c>
-      <c r="D77" t="s">
-        <v>277</v>
-      </c>
-      <c r="E77" t="s">
-        <v>272</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77" t="s">
-        <v>20</v>
-      </c>
-      <c r="K77" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>149</v>
-      </c>
-      <c r="B78" t="s">
-        <v>273</v>
-      </c>
-      <c r="C78" t="s">
-        <v>278</v>
-      </c>
-      <c r="D78" t="s">
-        <v>279</v>
-      </c>
-      <c r="E78" t="s">
-        <v>272</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78" t="s">
-        <v>20</v>
-      </c>
-      <c r="K78" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>149</v>
-      </c>
-      <c r="B79" t="s">
-        <v>273</v>
-      </c>
-      <c r="C79" t="s">
-        <v>280</v>
-      </c>
-      <c r="D79" t="s">
-        <v>281</v>
-      </c>
-      <c r="E79" t="s">
-        <v>272</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79" t="s">
-        <v>20</v>
-      </c>
-      <c r="K79" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>149</v>
-      </c>
-      <c r="B80" t="s">
-        <v>273</v>
-      </c>
-      <c r="C80" t="s">
-        <v>282</v>
-      </c>
-      <c r="D80" t="s">
-        <v>283</v>
-      </c>
-      <c r="E80" t="s">
-        <v>272</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80" t="s">
-        <v>20</v>
-      </c>
-      <c r="K80" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>149</v>
-      </c>
-      <c r="B81" t="s">
-        <v>273</v>
-      </c>
-      <c r="C81" t="s">
-        <v>284</v>
-      </c>
-      <c r="D81" t="s">
-        <v>285</v>
-      </c>
-      <c r="E81" t="s">
-        <v>272</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81" t="s">
-        <v>20</v>
-      </c>
-      <c r="K81" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>149</v>
-      </c>
-      <c r="B82" t="s">
-        <v>273</v>
-      </c>
-      <c r="C82" t="s">
-        <v>286</v>
-      </c>
-      <c r="D82" t="s">
-        <v>287</v>
-      </c>
-      <c r="E82" t="s">
-        <v>272</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82" t="s">
-        <v>20</v>
-      </c>
-      <c r="K82" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>149</v>
-      </c>
-      <c r="B83" t="s">
-        <v>273</v>
-      </c>
-      <c r="C83" t="s">
-        <v>288</v>
-      </c>
-      <c r="D83" t="s">
-        <v>289</v>
-      </c>
-      <c r="E83" t="s">
-        <v>272</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83" t="s">
-        <v>20</v>
-      </c>
-      <c r="K83" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>149</v>
-      </c>
-      <c r="B84" t="s">
-        <v>273</v>
-      </c>
-      <c r="C84" t="s">
-        <v>290</v>
-      </c>
-      <c r="D84" t="s">
-        <v>291</v>
-      </c>
-      <c r="E84" t="s">
-        <v>272</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84" t="s">
-        <v>20</v>
-      </c>
-      <c r="K84" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>149</v>
-      </c>
-      <c r="B85" t="s">
-        <v>273</v>
-      </c>
-      <c r="C85" t="s">
-        <v>292</v>
-      </c>
-      <c r="D85" t="s">
-        <v>293</v>
-      </c>
-      <c r="E85" t="s">
-        <v>272</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85" t="s">
-        <v>20</v>
-      </c>
-      <c r="K85" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>149</v>
-      </c>
-      <c r="B86" t="s">
-        <v>273</v>
-      </c>
-      <c r="C86" t="s">
-        <v>294</v>
-      </c>
-      <c r="D86" t="s">
-        <v>295</v>
-      </c>
-      <c r="E86" t="s">
-        <v>272</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86" t="s">
-        <v>20</v>
-      </c>
-      <c r="K86" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>149</v>
-      </c>
-      <c r="B87" t="s">
-        <v>273</v>
-      </c>
-      <c r="C87" t="s">
-        <v>296</v>
-      </c>
-      <c r="D87" t="s">
-        <v>297</v>
-      </c>
-      <c r="E87" t="s">
-        <v>272</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87" t="s">
-        <v>20</v>
-      </c>
-      <c r="K87" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>149</v>
-      </c>
-      <c r="B88" t="s">
-        <v>298</v>
-      </c>
-      <c r="C88" t="s">
-        <v>299</v>
-      </c>
-      <c r="D88" t="s">
-        <v>300</v>
-      </c>
-      <c r="E88" t="s">
-        <v>272</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88" t="s">
-        <v>20</v>
-      </c>
-      <c r="K88" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>149</v>
-      </c>
-      <c r="B89" t="s">
-        <v>298</v>
-      </c>
-      <c r="C89" t="s">
-        <v>301</v>
-      </c>
-      <c r="D89" t="s">
-        <v>302</v>
-      </c>
-      <c r="E89" t="s">
-        <v>272</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89" t="s">
-        <v>20</v>
-      </c>
-      <c r="K89" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>149</v>
-      </c>
-      <c r="B90" t="s">
-        <v>298</v>
-      </c>
-      <c r="C90" t="s">
-        <v>303</v>
-      </c>
-      <c r="D90" t="s">
-        <v>304</v>
-      </c>
-      <c r="E90" t="s">
-        <v>272</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90" t="s">
-        <v>20</v>
-      </c>
-      <c r="K90" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>149</v>
-      </c>
-      <c r="B91" t="s">
-        <v>305</v>
-      </c>
-      <c r="C91" t="s">
-        <v>306</v>
-      </c>
-      <c r="D91" t="s">
-        <v>307</v>
-      </c>
-      <c r="E91" t="s">
-        <v>308</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91" t="s">
-        <v>20</v>
-      </c>
-      <c r="K91" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>149</v>
-      </c>
-      <c r="B92" t="s">
-        <v>309</v>
-      </c>
-      <c r="C92" t="s">
-        <v>310</v>
-      </c>
-      <c r="D92" t="s">
-        <v>311</v>
-      </c>
-      <c r="E92" t="s">
-        <v>193</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>149</v>
-      </c>
-      <c r="B93" t="s">
-        <v>312</v>
-      </c>
-      <c r="C93" t="s">
-        <v>313</v>
-      </c>
-      <c r="D93" t="s">
-        <v>314</v>
-      </c>
-      <c r="E93" t="s">
-        <v>181</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93" t="s">
-        <v>15</v>
-      </c>
-      <c r="K93" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>149</v>
-      </c>
-      <c r="B94" t="s">
-        <v>312</v>
-      </c>
-      <c r="C94" t="s">
-        <v>313</v>
-      </c>
-      <c r="D94" t="s">
-        <v>314</v>
-      </c>
-      <c r="E94" t="s">
-        <v>174</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94" t="s">
-        <v>15</v>
-      </c>
-      <c r="K94" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>149</v>
-      </c>
-      <c r="B95" t="s">
-        <v>315</v>
-      </c>
-      <c r="C95" t="s">
-        <v>267</v>
-      </c>
-      <c r="D95" t="s">
-        <v>268</v>
-      </c>
-      <c r="E95" t="s">
-        <v>151</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95" t="s">
-        <v>15</v>
-      </c>
-      <c r="K95" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>149</v>
-      </c>
-      <c r="B96" t="s">
-        <v>315</v>
-      </c>
-      <c r="C96" t="s">
-        <v>316</v>
-      </c>
-      <c r="D96" t="s">
-        <v>317</v>
-      </c>
-      <c r="E96" t="s">
-        <v>181</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96" t="s">
-        <v>15</v>
-      </c>
-      <c r="K96" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>149</v>
-      </c>
-      <c r="B97" t="s">
-        <v>315</v>
-      </c>
-      <c r="C97" t="s">
-        <v>316</v>
-      </c>
-      <c r="D97" t="s">
-        <v>317</v>
-      </c>
-      <c r="E97" t="s">
-        <v>174</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97" t="s">
-        <v>15</v>
-      </c>
-      <c r="K97" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>149</v>
-      </c>
-      <c r="B98" t="s">
-        <v>318</v>
-      </c>
-      <c r="C98" t="s">
-        <v>319</v>
-      </c>
-      <c r="D98" t="s">
-        <v>320</v>
-      </c>
-      <c r="E98" t="s">
-        <v>181</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98" t="s">
-        <v>30</v>
-      </c>
-      <c r="K98" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>149</v>
-      </c>
-      <c r="B99" t="s">
-        <v>321</v>
-      </c>
-      <c r="C99" t="s">
-        <v>322</v>
-      </c>
-      <c r="D99" t="s">
-        <v>323</v>
-      </c>
-      <c r="E99" t="s">
-        <v>185</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99" t="s">
-        <v>30</v>
-      </c>
-      <c r="K99" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>149</v>
-      </c>
-      <c r="B100" t="s">
-        <v>648</v>
-      </c>
-      <c r="C100" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" t="s">
-        <v>13</v>
-      </c>
-      <c r="E100" t="s">
-        <v>181</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100" t="s">
-        <v>15</v>
-      </c>
-      <c r="K100" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>149</v>
-      </c>
-      <c r="B101" t="s">
-        <v>649</v>
-      </c>
-      <c r="C101" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101" t="s">
-        <v>174</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101" t="s">
-        <v>15</v>
-      </c>
-      <c r="K101" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>149</v>
-      </c>
-      <c r="B102" t="s">
-        <v>324</v>
-      </c>
-      <c r="C102" t="s">
-        <v>325</v>
-      </c>
-      <c r="D102" t="s">
-        <v>326</v>
-      </c>
-      <c r="E102" t="s">
-        <v>327</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102" t="s">
-        <v>48</v>
-      </c>
-      <c r="K102" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>149</v>
-      </c>
-      <c r="B103" t="s">
-        <v>328</v>
-      </c>
-      <c r="C103" t="s">
-        <v>329</v>
-      </c>
-      <c r="D103" t="s">
-        <v>326</v>
-      </c>
-      <c r="E103" t="s">
-        <v>330</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103" t="s">
-        <v>48</v>
-      </c>
-      <c r="K103" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>149</v>
-      </c>
-      <c r="B104" t="s">
-        <v>331</v>
-      </c>
-      <c r="C104" t="s">
-        <v>332</v>
-      </c>
-      <c r="D104" t="s">
-        <v>333</v>
-      </c>
-      <c r="E104" t="s">
-        <v>334</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104" t="s">
-        <v>48</v>
-      </c>
-      <c r="K104" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>149</v>
-      </c>
-      <c r="B105" t="s">
-        <v>335</v>
-      </c>
-      <c r="C105" t="s">
-        <v>73</v>
-      </c>
-      <c r="D105" t="s">
-        <v>74</v>
-      </c>
-      <c r="E105" t="s">
-        <v>336</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105" t="s">
-        <v>48</v>
-      </c>
-      <c r="K105" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>149</v>
-      </c>
-      <c r="B106" t="s">
-        <v>337</v>
-      </c>
-      <c r="C106" t="s">
-        <v>338</v>
-      </c>
-      <c r="D106" t="s">
-        <v>339</v>
-      </c>
-      <c r="E106" t="s">
-        <v>336</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106" t="s">
-        <v>48</v>
-      </c>
-      <c r="K106" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>149</v>
-      </c>
-      <c r="B107" t="s">
-        <v>340</v>
-      </c>
-      <c r="C107" t="s">
-        <v>341</v>
-      </c>
-      <c r="D107" t="s">
-        <v>342</v>
-      </c>
-      <c r="E107" t="s">
-        <v>170</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107" t="s">
-        <v>15</v>
-      </c>
-      <c r="K107" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>149</v>
-      </c>
-      <c r="B108" t="s">
-        <v>343</v>
-      </c>
-      <c r="C108" t="s">
-        <v>344</v>
-      </c>
-      <c r="D108" t="s">
-        <v>345</v>
-      </c>
-      <c r="E108" t="s">
-        <v>272</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108" t="s">
-        <v>20</v>
-      </c>
-      <c r="K108" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>149</v>
-      </c>
-      <c r="B109" t="s">
-        <v>346</v>
-      </c>
-      <c r="C109" t="s">
-        <v>347</v>
-      </c>
-      <c r="D109" t="s">
-        <v>348</v>
-      </c>
-      <c r="E109" t="s">
-        <v>272</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109" t="s">
-        <v>20</v>
-      </c>
-      <c r="K109" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>149</v>
-      </c>
-      <c r="B110" t="s">
-        <v>349</v>
-      </c>
-      <c r="C110" t="s">
-        <v>350</v>
-      </c>
-      <c r="D110" t="s">
-        <v>351</v>
-      </c>
-      <c r="E110" t="s">
-        <v>272</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110" t="s">
-        <v>20</v>
-      </c>
-      <c r="K110" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>149</v>
-      </c>
-      <c r="B111" t="s">
-        <v>352</v>
-      </c>
-      <c r="C111" t="s">
-        <v>353</v>
-      </c>
-      <c r="D111" t="s">
-        <v>354</v>
-      </c>
-      <c r="E111" t="s">
-        <v>272</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111" t="s">
-        <v>20</v>
-      </c>
-      <c r="K111" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>149</v>
-      </c>
-      <c r="B112" t="s">
-        <v>355</v>
-      </c>
-      <c r="C112" t="s">
-        <v>356</v>
-      </c>
-      <c r="D112" t="s">
-        <v>357</v>
-      </c>
-      <c r="E112" t="s">
-        <v>272</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112" t="s">
-        <v>20</v>
-      </c>
-      <c r="K112" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>149</v>
-      </c>
-      <c r="B113" t="s">
-        <v>358</v>
-      </c>
-      <c r="C113" t="s">
-        <v>359</v>
-      </c>
-      <c r="D113" t="s">
-        <v>360</v>
-      </c>
-      <c r="E113" t="s">
-        <v>272</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113" t="s">
-        <v>20</v>
-      </c>
-      <c r="K113" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>149</v>
-      </c>
-      <c r="B114" t="s">
-        <v>361</v>
-      </c>
-      <c r="C114" t="s">
-        <v>362</v>
-      </c>
-      <c r="D114" t="s">
-        <v>323</v>
-      </c>
-      <c r="E114" t="s">
-        <v>185</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114" t="s">
-        <v>30</v>
-      </c>
-      <c r="K114" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>149</v>
-      </c>
-      <c r="B115" t="s">
-        <v>363</v>
-      </c>
-      <c r="C115" t="s">
-        <v>364</v>
-      </c>
-      <c r="D115" t="s">
-        <v>365</v>
-      </c>
-      <c r="E115" t="s">
-        <v>185</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115" t="s">
-        <v>30</v>
-      </c>
-      <c r="K115" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>149</v>
-      </c>
-      <c r="B116" t="s">
-        <v>366</v>
-      </c>
-      <c r="C116" t="s">
-        <v>367</v>
-      </c>
-      <c r="D116" t="s">
-        <v>365</v>
-      </c>
-      <c r="E116" t="s">
-        <v>185</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116" t="s">
-        <v>30</v>
-      </c>
-      <c r="K116" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>149</v>
-      </c>
-      <c r="B117" t="s">
-        <v>651</v>
-      </c>
-      <c r="C117" t="s">
-        <v>369</v>
-      </c>
-      <c r="D117" t="s">
-        <v>370</v>
-      </c>
-      <c r="E117" t="s">
-        <v>174</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117" t="s">
-        <v>30</v>
-      </c>
-      <c r="K117" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>149</v>
-      </c>
-      <c r="B118" t="s">
-        <v>368</v>
-      </c>
-      <c r="C118" t="s">
-        <v>369</v>
-      </c>
-      <c r="D118" t="s">
-        <v>370</v>
-      </c>
-      <c r="E118" t="s">
-        <v>151</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118" t="s">
-        <v>30</v>
-      </c>
-      <c r="K118" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>149</v>
-      </c>
-      <c r="B119" t="s">
-        <v>371</v>
-      </c>
-      <c r="C119" t="s">
-        <v>202</v>
-      </c>
-      <c r="D119" t="s">
-        <v>203</v>
-      </c>
-      <c r="E119" t="s">
-        <v>151</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119" t="s">
-        <v>30</v>
-      </c>
-      <c r="K119" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>149</v>
-      </c>
-      <c r="B120" t="s">
-        <v>372</v>
-      </c>
-      <c r="C120" t="s">
-        <v>373</v>
-      </c>
-      <c r="D120" t="s">
-        <v>374</v>
-      </c>
-      <c r="E120" t="s">
-        <v>174</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120" t="s">
-        <v>30</v>
-      </c>
-      <c r="K120" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>149</v>
-      </c>
-      <c r="B121" t="s">
-        <v>375</v>
-      </c>
-      <c r="C121" t="s">
-        <v>373</v>
-      </c>
-      <c r="D121" t="s">
-        <v>374</v>
-      </c>
-      <c r="E121" t="s">
-        <v>151</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121" t="s">
-        <v>30</v>
-      </c>
-      <c r="K121" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>149</v>
-      </c>
-      <c r="B122" t="s">
-        <v>652</v>
-      </c>
-      <c r="C122" t="s">
-        <v>172</v>
-      </c>
-      <c r="D122" t="s">
-        <v>173</v>
-      </c>
-      <c r="E122" t="s">
-        <v>174</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122" t="s">
-        <v>30</v>
-      </c>
-      <c r="K122" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>149</v>
-      </c>
-      <c r="B123" t="s">
-        <v>653</v>
-      </c>
-      <c r="C123" t="s">
-        <v>172</v>
-      </c>
-      <c r="D123" t="s">
-        <v>173</v>
-      </c>
-      <c r="E123" t="s">
-        <v>151</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123" t="s">
-        <v>30</v>
-      </c>
-      <c r="K123" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>149</v>
-      </c>
-      <c r="B124" t="s">
-        <v>376</v>
-      </c>
-      <c r="C124" t="s">
-        <v>134</v>
-      </c>
-      <c r="D124" t="s">
-        <v>135</v>
-      </c>
-      <c r="E124" t="s">
-        <v>151</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124" t="s">
-        <v>15</v>
-      </c>
-      <c r="K124" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>149</v>
-      </c>
-      <c r="B125" t="s">
-        <v>377</v>
-      </c>
-      <c r="C125" t="s">
-        <v>319</v>
-      </c>
-      <c r="D125" t="s">
-        <v>320</v>
-      </c>
-      <c r="E125" t="s">
-        <v>174</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125" t="s">
-        <v>30</v>
-      </c>
-      <c r="K125" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>149</v>
-      </c>
-      <c r="B126" t="s">
-        <v>133</v>
-      </c>
-      <c r="C126" t="s">
-        <v>319</v>
-      </c>
-      <c r="D126" t="s">
-        <v>320</v>
-      </c>
-      <c r="E126" t="s">
-        <v>151</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126" t="s">
-        <v>30</v>
-      </c>
-      <c r="K126" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>149</v>
-      </c>
-      <c r="B127" t="s">
-        <v>378</v>
-      </c>
-      <c r="C127" t="s">
-        <v>379</v>
-      </c>
-      <c r="D127" t="s">
-        <v>380</v>
-      </c>
-      <c r="E127" t="s">
-        <v>174</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127" t="s">
-        <v>15</v>
-      </c>
-      <c r="K127" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>149</v>
-      </c>
-      <c r="B128" t="s">
-        <v>381</v>
-      </c>
-      <c r="C128" t="s">
-        <v>379</v>
-      </c>
-      <c r="D128" t="s">
-        <v>380</v>
-      </c>
-      <c r="E128" t="s">
-        <v>151</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128" t="s">
-        <v>15</v>
-      </c>
-      <c r="K128" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>149</v>
-      </c>
-      <c r="B129" t="s">
-        <v>382</v>
-      </c>
-      <c r="C129" t="s">
-        <v>383</v>
-      </c>
-      <c r="D129" t="s">
-        <v>384</v>
-      </c>
-      <c r="E129" t="s">
-        <v>174</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129" t="s">
-        <v>15</v>
-      </c>
-      <c r="K129" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>149</v>
-      </c>
-      <c r="B130" t="s">
-        <v>385</v>
-      </c>
-      <c r="C130" t="s">
-        <v>383</v>
-      </c>
-      <c r="D130" t="s">
-        <v>384</v>
-      </c>
-      <c r="E130" t="s">
-        <v>151</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130" t="s">
-        <v>15</v>
-      </c>
-      <c r="K130" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>149</v>
-      </c>
-      <c r="B131" t="s">
-        <v>386</v>
-      </c>
-      <c r="C131" t="s">
-        <v>387</v>
-      </c>
-      <c r="D131" t="s">
-        <v>388</v>
-      </c>
-      <c r="E131" t="s">
-        <v>174</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131" t="s">
-        <v>15</v>
-      </c>
-      <c r="K131" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>149</v>
-      </c>
-      <c r="B132" t="s">
-        <v>389</v>
-      </c>
-      <c r="C132" t="s">
-        <v>387</v>
-      </c>
-      <c r="D132" t="s">
-        <v>388</v>
-      </c>
-      <c r="E132" t="s">
-        <v>151</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-      <c r="J132" t="s">
-        <v>15</v>
-      </c>
-      <c r="K132" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>149</v>
-      </c>
-      <c r="B133" t="s">
-        <v>654</v>
-      </c>
-      <c r="C133" t="s">
-        <v>655</v>
-      </c>
-      <c r="D133" t="s">
-        <v>656</v>
-      </c>
-      <c r="E133" t="s">
-        <v>197</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133" t="s">
-        <v>15</v>
-      </c>
-      <c r="K133" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>149</v>
-      </c>
-      <c r="B134" t="s">
-        <v>657</v>
-      </c>
-      <c r="C134" t="s">
-        <v>658</v>
-      </c>
-      <c r="D134" t="s">
-        <v>659</v>
-      </c>
-      <c r="E134" t="s">
-        <v>197</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-      <c r="J134" t="s">
-        <v>15</v>
-      </c>
-      <c r="K134" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>149</v>
-      </c>
-      <c r="B135" t="s">
-        <v>390</v>
-      </c>
-      <c r="C135" t="s">
-        <v>391</v>
-      </c>
-      <c r="D135" t="s">
-        <v>392</v>
-      </c>
-      <c r="E135" t="s">
-        <v>197</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135" t="s">
-        <v>15</v>
-      </c>
-      <c r="K135" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>149</v>
-      </c>
-      <c r="B136" t="s">
-        <v>393</v>
-      </c>
-      <c r="C136" t="s">
-        <v>394</v>
-      </c>
-      <c r="D136" t="s">
-        <v>395</v>
-      </c>
-      <c r="E136" t="s">
-        <v>197</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136" t="s">
-        <v>15</v>
-      </c>
-      <c r="K136" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>149</v>
-      </c>
-      <c r="B137" t="s">
-        <v>396</v>
-      </c>
-      <c r="C137" t="s">
-        <v>397</v>
-      </c>
-      <c r="D137" t="s">
-        <v>398</v>
-      </c>
-      <c r="E137" t="s">
-        <v>197</v>
-      </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137" t="s">
-        <v>15</v>
-      </c>
-      <c r="K137" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>149</v>
-      </c>
-      <c r="B138" t="s">
-        <v>399</v>
-      </c>
-      <c r="C138" t="s">
-        <v>221</v>
-      </c>
-      <c r="D138" t="s">
-        <v>222</v>
-      </c>
-      <c r="E138" t="s">
-        <v>197</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138" t="s">
-        <v>30</v>
-      </c>
-      <c r="K138" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>149</v>
-      </c>
-      <c r="B139" t="s">
-        <v>400</v>
-      </c>
-      <c r="C139" t="s">
-        <v>230</v>
-      </c>
-      <c r="D139" t="s">
-        <v>231</v>
-      </c>
-      <c r="E139" t="s">
-        <v>197</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139" t="s">
-        <v>30</v>
-      </c>
-      <c r="K139" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>149</v>
-      </c>
-      <c r="B140" t="s">
-        <v>401</v>
-      </c>
-      <c r="C140" t="s">
-        <v>228</v>
-      </c>
-      <c r="D140" t="s">
-        <v>229</v>
-      </c>
-      <c r="E140" t="s">
-        <v>197</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140" t="s">
-        <v>30</v>
-      </c>
-      <c r="K140" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>149</v>
-      </c>
-      <c r="B141" t="s">
-        <v>402</v>
-      </c>
-      <c r="C141" t="s">
-        <v>237</v>
-      </c>
-      <c r="D141" t="s">
-        <v>238</v>
-      </c>
-      <c r="E141" t="s">
-        <v>197</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141" t="s">
-        <v>30</v>
-      </c>
-      <c r="K141" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>149</v>
-      </c>
-      <c r="B142" t="s">
-        <v>660</v>
-      </c>
-      <c r="C142" t="s">
-        <v>195</v>
-      </c>
-      <c r="D142" t="s">
-        <v>196</v>
-      </c>
-      <c r="E142" t="s">
-        <v>197</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="J142" t="s">
-        <v>30</v>
-      </c>
-      <c r="K142" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>149</v>
-      </c>
-      <c r="B143" t="s">
-        <v>403</v>
-      </c>
-      <c r="C143" t="s">
-        <v>216</v>
-      </c>
-      <c r="D143" t="s">
-        <v>217</v>
-      </c>
-      <c r="E143" t="s">
-        <v>197</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143" t="s">
-        <v>30</v>
-      </c>
-      <c r="K143" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>149</v>
-      </c>
-      <c r="B144" t="s">
-        <v>404</v>
-      </c>
-      <c r="C144" t="s">
-        <v>214</v>
-      </c>
-      <c r="D144" t="s">
-        <v>215</v>
-      </c>
-      <c r="E144" t="s">
-        <v>197</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144" t="s">
-        <v>30</v>
-      </c>
-      <c r="K144" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>149</v>
-      </c>
-      <c r="B145" t="s">
-        <v>405</v>
-      </c>
-      <c r="C145" t="s">
-        <v>212</v>
-      </c>
-      <c r="D145" t="s">
-        <v>213</v>
-      </c>
-      <c r="E145" t="s">
-        <v>197</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145" t="s">
-        <v>30</v>
-      </c>
-      <c r="K145" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>149</v>
-      </c>
-      <c r="B146" t="s">
-        <v>406</v>
-      </c>
-      <c r="C146" t="s">
-        <v>210</v>
-      </c>
-      <c r="D146" t="s">
-        <v>211</v>
-      </c>
-      <c r="E146" t="s">
-        <v>197</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146" t="s">
-        <v>30</v>
-      </c>
-      <c r="K146" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>149</v>
-      </c>
-      <c r="B147" t="s">
-        <v>407</v>
-      </c>
-      <c r="C147" t="s">
-        <v>208</v>
-      </c>
-      <c r="D147" t="s">
-        <v>209</v>
-      </c>
-      <c r="E147" t="s">
-        <v>197</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147" t="s">
-        <v>30</v>
-      </c>
-      <c r="K147" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>149</v>
-      </c>
-      <c r="B148" t="s">
-        <v>408</v>
-      </c>
-      <c r="C148" t="s">
-        <v>205</v>
-      </c>
-      <c r="D148" t="s">
-        <v>206</v>
-      </c>
-      <c r="E148" t="s">
-        <v>197</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-      <c r="J148" t="s">
-        <v>30</v>
-      </c>
-      <c r="K148" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>149</v>
-      </c>
-      <c r="B149" t="s">
-        <v>409</v>
-      </c>
-      <c r="C149" t="s">
-        <v>410</v>
-      </c>
-      <c r="D149" t="s">
-        <v>411</v>
-      </c>
-      <c r="E149" t="s">
-        <v>412</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149" t="s">
-        <v>15</v>
-      </c>
-      <c r="K149" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>149</v>
-      </c>
-      <c r="B150" t="s">
-        <v>413</v>
-      </c>
-      <c r="C150" t="s">
-        <v>414</v>
-      </c>
-      <c r="D150" t="s">
-        <v>415</v>
-      </c>
-      <c r="E150" t="s">
-        <v>336</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150" t="s">
-        <v>30</v>
-      </c>
-      <c r="K150" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>149</v>
-      </c>
-      <c r="B151" t="s">
-        <v>416</v>
-      </c>
-      <c r="C151" t="s">
-        <v>417</v>
-      </c>
-      <c r="D151" t="s">
-        <v>418</v>
-      </c>
-      <c r="E151" t="s">
-        <v>419</v>
-      </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-      <c r="J151" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>149</v>
-      </c>
-      <c r="B152" t="s">
-        <v>420</v>
-      </c>
-      <c r="C152" t="s">
-        <v>417</v>
-      </c>
-      <c r="D152" t="s">
-        <v>418</v>
-      </c>
-      <c r="E152" t="s">
-        <v>336</v>
-      </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
-      <c r="J152" t="s">
-        <v>41</v>
-      </c>
-      <c r="K152" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>421</v>
-      </c>
-      <c r="B153" t="s">
-        <v>422</v>
-      </c>
-      <c r="C153" t="s">
-        <v>423</v>
-      </c>
-      <c r="D153" t="s">
-        <v>424</v>
-      </c>
-      <c r="E153" t="s">
-        <v>34</v>
-      </c>
-      <c r="F153" t="s">
-        <v>425</v>
-      </c>
-      <c r="G153" t="s">
-        <v>426</v>
-      </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
-      <c r="J153" t="s">
-        <v>189</v>
-      </c>
-      <c r="K153" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>421</v>
-      </c>
-      <c r="B154" t="s">
-        <v>427</v>
-      </c>
-      <c r="C154" t="s">
-        <v>428</v>
-      </c>
-      <c r="D154" t="s">
-        <v>429</v>
-      </c>
-      <c r="E154" t="s">
-        <v>34</v>
-      </c>
-      <c r="F154" t="s">
-        <v>430</v>
-      </c>
-      <c r="G154" t="s">
-        <v>426</v>
-      </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-      <c r="J154" t="s">
-        <v>189</v>
-      </c>
-      <c r="K154" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>421</v>
-      </c>
-      <c r="B155" t="s">
-        <v>431</v>
-      </c>
-      <c r="C155" t="s">
-        <v>432</v>
-      </c>
-      <c r="D155" t="s">
-        <v>433</v>
-      </c>
-      <c r="E155" t="s">
-        <v>68</v>
-      </c>
-      <c r="F155" t="s">
-        <v>434</v>
-      </c>
-      <c r="G155" t="s">
-        <v>426</v>
-      </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
-      <c r="J155" t="s">
-        <v>189</v>
-      </c>
-      <c r="K155" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>421</v>
-      </c>
-      <c r="B156" t="s">
-        <v>435</v>
-      </c>
-      <c r="C156" t="s">
-        <v>436</v>
-      </c>
-      <c r="D156" t="s">
-        <v>437</v>
-      </c>
-      <c r="E156" t="s">
-        <v>68</v>
-      </c>
-      <c r="F156" t="s">
-        <v>438</v>
-      </c>
-      <c r="G156" t="s">
-        <v>426</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156" t="s">
-        <v>189</v>
-      </c>
-      <c r="K156" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>421</v>
-      </c>
-      <c r="B157" t="s">
-        <v>439</v>
-      </c>
-      <c r="C157" t="s">
-        <v>440</v>
-      </c>
-      <c r="D157" t="s">
-        <v>441</v>
-      </c>
-      <c r="E157" t="s">
-        <v>68</v>
-      </c>
-      <c r="F157" t="s">
-        <v>442</v>
-      </c>
-      <c r="G157" t="s">
-        <v>426</v>
-      </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-      <c r="J157" t="s">
-        <v>189</v>
-      </c>
-      <c r="K157" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>421</v>
-      </c>
-      <c r="B158" t="s">
-        <v>443</v>
-      </c>
-      <c r="C158" t="s">
-        <v>444</v>
-      </c>
-      <c r="D158" t="s">
-        <v>445</v>
-      </c>
-      <c r="E158" t="s">
-        <v>68</v>
-      </c>
-      <c r="F158" t="s">
-        <v>446</v>
-      </c>
-      <c r="G158" t="s">
-        <v>426</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-      <c r="J158" t="s">
-        <v>189</v>
-      </c>
-      <c r="K158" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>421</v>
-      </c>
-      <c r="B159" t="s">
-        <v>447</v>
-      </c>
-      <c r="C159" t="s">
-        <v>448</v>
-      </c>
-      <c r="D159" t="s">
-        <v>449</v>
-      </c>
-      <c r="E159" t="s">
-        <v>68</v>
-      </c>
-      <c r="F159" t="s">
-        <v>450</v>
-      </c>
-      <c r="G159" t="s">
-        <v>426</v>
-      </c>
-      <c r="I159">
-        <v>0</v>
-      </c>
-      <c r="J159" t="s">
-        <v>189</v>
-      </c>
-      <c r="K159" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>421</v>
-      </c>
-      <c r="B160" t="s">
-        <v>451</v>
-      </c>
-      <c r="C160" t="s">
-        <v>452</v>
-      </c>
-      <c r="D160" t="s">
-        <v>453</v>
-      </c>
-      <c r="E160" t="s">
-        <v>68</v>
-      </c>
-      <c r="F160" t="s">
-        <v>454</v>
-      </c>
-      <c r="G160" t="s">
-        <v>426</v>
-      </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-      <c r="J160" t="s">
-        <v>189</v>
-      </c>
-      <c r="K160" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>421</v>
-      </c>
-      <c r="B161" t="s">
-        <v>455</v>
-      </c>
-      <c r="C161" t="s">
-        <v>456</v>
-      </c>
-      <c r="D161" t="s">
-        <v>457</v>
-      </c>
-      <c r="E161" t="s">
-        <v>68</v>
-      </c>
-      <c r="F161" t="s">
-        <v>458</v>
-      </c>
-      <c r="G161" t="s">
-        <v>426</v>
-      </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-      <c r="J161" t="s">
-        <v>189</v>
-      </c>
-      <c r="K161" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>421</v>
-      </c>
-      <c r="B162" t="s">
-        <v>459</v>
-      </c>
-      <c r="C162" t="s">
-        <v>460</v>
-      </c>
-      <c r="D162" t="s">
-        <v>461</v>
-      </c>
-      <c r="E162" t="s">
-        <v>68</v>
-      </c>
-      <c r="F162" t="s">
-        <v>462</v>
-      </c>
-      <c r="G162" t="s">
-        <v>426</v>
-      </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
-      <c r="J162" t="s">
-        <v>189</v>
-      </c>
-      <c r="K162" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>421</v>
-      </c>
-      <c r="B163" t="s">
-        <v>463</v>
-      </c>
-      <c r="C163" t="s">
-        <v>464</v>
-      </c>
-      <c r="D163" t="s">
-        <v>465</v>
-      </c>
-      <c r="E163" t="s">
-        <v>68</v>
-      </c>
-      <c r="F163" t="s">
-        <v>466</v>
-      </c>
-      <c r="G163" t="s">
-        <v>426</v>
-      </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
-      <c r="J163" t="s">
-        <v>189</v>
-      </c>
-      <c r="K163" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>421</v>
-      </c>
-      <c r="B164" t="s">
-        <v>467</v>
-      </c>
-      <c r="C164" t="s">
-        <v>468</v>
-      </c>
-      <c r="D164" t="s">
-        <v>469</v>
-      </c>
-      <c r="E164" t="s">
-        <v>68</v>
-      </c>
-      <c r="F164" t="s">
-        <v>470</v>
-      </c>
-      <c r="G164" t="s">
-        <v>426</v>
-      </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
-      <c r="J164" t="s">
-        <v>189</v>
-      </c>
-      <c r="K164" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>421</v>
-      </c>
-      <c r="B165" t="s">
-        <v>471</v>
-      </c>
-      <c r="C165" t="s">
-        <v>472</v>
-      </c>
-      <c r="D165" t="s">
-        <v>473</v>
-      </c>
-      <c r="E165" t="s">
-        <v>68</v>
-      </c>
-      <c r="F165" t="s">
-        <v>474</v>
-      </c>
-      <c r="G165" t="s">
-        <v>426</v>
-      </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
-      <c r="J165" t="s">
-        <v>189</v>
-      </c>
-      <c r="K165" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>421</v>
-      </c>
-      <c r="B166" t="s">
-        <v>475</v>
-      </c>
-      <c r="C166" t="s">
-        <v>476</v>
-      </c>
-      <c r="D166" t="s">
-        <v>477</v>
-      </c>
-      <c r="E166" t="s">
-        <v>68</v>
-      </c>
-      <c r="F166" t="s">
-        <v>478</v>
-      </c>
-      <c r="G166" t="s">
-        <v>426</v>
-      </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
-      <c r="J166" t="s">
-        <v>189</v>
-      </c>
-      <c r="K166" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>421</v>
-      </c>
-      <c r="B167" t="s">
-        <v>479</v>
-      </c>
-      <c r="C167" t="s">
-        <v>480</v>
-      </c>
-      <c r="D167" t="s">
-        <v>481</v>
-      </c>
-      <c r="E167" t="s">
-        <v>68</v>
-      </c>
-      <c r="F167" t="s">
-        <v>482</v>
-      </c>
-      <c r="G167" t="s">
-        <v>426</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
-      <c r="J167" t="s">
-        <v>189</v>
-      </c>
-      <c r="K167" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>421</v>
-      </c>
-      <c r="B168" t="s">
-        <v>483</v>
-      </c>
-      <c r="C168" t="s">
-        <v>484</v>
-      </c>
-      <c r="D168" t="s">
-        <v>485</v>
-      </c>
-      <c r="E168" t="s">
-        <v>68</v>
-      </c>
-      <c r="F168" t="s">
-        <v>486</v>
-      </c>
-      <c r="G168" t="s">
-        <v>426</v>
-      </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
-      <c r="J168" t="s">
-        <v>189</v>
-      </c>
-      <c r="K168" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>421</v>
-      </c>
-      <c r="B169" t="s">
-        <v>487</v>
-      </c>
-      <c r="C169" t="s">
-        <v>488</v>
-      </c>
-      <c r="D169" t="s">
-        <v>489</v>
-      </c>
-      <c r="E169" t="s">
-        <v>68</v>
-      </c>
-      <c r="F169" t="s">
-        <v>490</v>
-      </c>
-      <c r="G169" t="s">
-        <v>426</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-      <c r="J169" t="s">
-        <v>189</v>
-      </c>
-      <c r="K169" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>421</v>
-      </c>
-      <c r="B170" t="s">
-        <v>491</v>
-      </c>
-      <c r="C170" t="s">
-        <v>492</v>
-      </c>
-      <c r="D170" t="s">
-        <v>493</v>
-      </c>
-      <c r="E170" t="s">
-        <v>68</v>
-      </c>
-      <c r="F170" t="s">
-        <v>494</v>
-      </c>
-      <c r="G170" t="s">
-        <v>426</v>
-      </c>
-      <c r="I170">
-        <v>0</v>
-      </c>
-      <c r="J170" t="s">
-        <v>189</v>
-      </c>
-      <c r="K170" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>421</v>
-      </c>
-      <c r="B171" t="s">
-        <v>495</v>
-      </c>
-      <c r="C171" t="s">
-        <v>496</v>
-      </c>
-      <c r="D171" t="s">
-        <v>497</v>
-      </c>
-      <c r="E171" t="s">
-        <v>68</v>
-      </c>
-      <c r="F171" t="s">
-        <v>498</v>
-      </c>
-      <c r="G171" t="s">
-        <v>426</v>
-      </c>
-      <c r="I171">
-        <v>0</v>
-      </c>
-      <c r="J171" t="s">
-        <v>189</v>
-      </c>
-      <c r="K171" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>421</v>
-      </c>
-      <c r="B172" t="s">
-        <v>499</v>
-      </c>
-      <c r="C172" t="s">
-        <v>500</v>
-      </c>
-      <c r="D172" t="s">
-        <v>501</v>
-      </c>
-      <c r="E172" t="s">
-        <v>68</v>
-      </c>
-      <c r="F172" t="s">
-        <v>502</v>
-      </c>
-      <c r="G172" t="s">
-        <v>426</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
-      </c>
-      <c r="J172" t="s">
-        <v>189</v>
-      </c>
-      <c r="K172" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>421</v>
-      </c>
-      <c r="B173" t="s">
-        <v>503</v>
-      </c>
-      <c r="C173" t="s">
-        <v>504</v>
-      </c>
-      <c r="D173" t="s">
-        <v>505</v>
-      </c>
-      <c r="E173" t="s">
-        <v>68</v>
-      </c>
-      <c r="F173" t="s">
-        <v>506</v>
-      </c>
-      <c r="G173" t="s">
-        <v>426</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
-      </c>
-      <c r="J173" t="s">
-        <v>189</v>
-      </c>
-      <c r="K173" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>421</v>
-      </c>
-      <c r="B174" t="s">
-        <v>507</v>
-      </c>
-      <c r="C174" t="s">
-        <v>508</v>
-      </c>
-      <c r="D174" t="s">
-        <v>509</v>
-      </c>
-      <c r="E174" t="s">
-        <v>68</v>
-      </c>
-      <c r="F174" t="s">
-        <v>510</v>
-      </c>
-      <c r="G174" t="s">
-        <v>426</v>
-      </c>
-      <c r="I174">
-        <v>0</v>
-      </c>
-      <c r="J174" t="s">
-        <v>189</v>
-      </c>
-      <c r="K174" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>421</v>
-      </c>
-      <c r="B175" t="s">
-        <v>511</v>
-      </c>
-      <c r="C175" t="s">
-        <v>512</v>
-      </c>
-      <c r="D175" t="s">
-        <v>513</v>
-      </c>
-      <c r="E175" t="s">
-        <v>68</v>
-      </c>
-      <c r="F175" t="s">
-        <v>514</v>
-      </c>
-      <c r="G175" t="s">
-        <v>426</v>
-      </c>
-      <c r="I175">
-        <v>0</v>
-      </c>
-      <c r="J175" t="s">
-        <v>189</v>
-      </c>
-      <c r="K175" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>421</v>
-      </c>
-      <c r="B176" t="s">
-        <v>515</v>
-      </c>
-      <c r="C176" t="s">
-        <v>516</v>
-      </c>
-      <c r="D176" t="s">
-        <v>517</v>
-      </c>
-      <c r="E176" t="s">
-        <v>68</v>
-      </c>
-      <c r="F176" t="s">
-        <v>518</v>
-      </c>
-      <c r="G176" t="s">
-        <v>426</v>
-      </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-      <c r="J176" t="s">
-        <v>189</v>
-      </c>
-      <c r="K176" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>421</v>
-      </c>
-      <c r="B177" t="s">
-        <v>519</v>
-      </c>
-      <c r="C177" t="s">
-        <v>520</v>
-      </c>
-      <c r="D177" t="s">
-        <v>521</v>
-      </c>
-      <c r="E177" t="s">
-        <v>68</v>
-      </c>
-      <c r="F177" t="s">
-        <v>522</v>
-      </c>
-      <c r="G177" t="s">
-        <v>426</v>
-      </c>
-      <c r="I177">
-        <v>0</v>
-      </c>
-      <c r="J177" t="s">
-        <v>189</v>
-      </c>
-      <c r="K177" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>421</v>
-      </c>
-      <c r="B178" t="s">
-        <v>523</v>
-      </c>
-      <c r="C178" t="s">
-        <v>524</v>
-      </c>
-      <c r="D178" t="s">
-        <v>525</v>
-      </c>
-      <c r="E178" t="s">
-        <v>68</v>
-      </c>
-      <c r="F178" t="s">
-        <v>526</v>
-      </c>
-      <c r="G178" t="s">
-        <v>426</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-      <c r="J178" t="s">
-        <v>189</v>
-      </c>
-      <c r="K178" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>421</v>
-      </c>
-      <c r="B179" t="s">
-        <v>527</v>
-      </c>
-      <c r="C179" t="s">
-        <v>528</v>
-      </c>
-      <c r="D179" t="s">
-        <v>529</v>
-      </c>
-      <c r="E179" t="s">
-        <v>68</v>
-      </c>
-      <c r="F179" t="s">
-        <v>530</v>
-      </c>
-      <c r="G179" t="s">
-        <v>426</v>
-      </c>
-      <c r="I179">
-        <v>0</v>
-      </c>
-      <c r="J179" t="s">
-        <v>189</v>
-      </c>
-      <c r="K179" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>531</v>
-      </c>
-      <c r="B180" t="s">
-        <v>532</v>
-      </c>
-      <c r="C180" t="s">
-        <v>533</v>
-      </c>
-      <c r="D180" t="s">
-        <v>326</v>
-      </c>
-      <c r="E180" t="s">
-        <v>534</v>
-      </c>
-      <c r="F180" t="s">
-        <v>535</v>
-      </c>
-      <c r="G180" t="s">
-        <v>536</v>
-      </c>
-      <c r="I180">
-        <v>0</v>
-      </c>
-      <c r="J180" t="s">
-        <v>48</v>
-      </c>
-      <c r="K180" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>531</v>
-      </c>
-      <c r="B181" t="s">
-        <v>537</v>
-      </c>
-      <c r="C181" t="s">
-        <v>538</v>
-      </c>
-      <c r="D181" t="s">
-        <v>333</v>
-      </c>
-      <c r="E181" t="s">
-        <v>534</v>
-      </c>
-      <c r="F181" t="s">
-        <v>539</v>
-      </c>
-      <c r="G181" t="s">
-        <v>540</v>
-      </c>
-      <c r="I181">
-        <v>0</v>
-      </c>
-      <c r="J181" t="s">
-        <v>189</v>
-      </c>
-      <c r="K181" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>531</v>
-      </c>
-      <c r="B182" t="s">
-        <v>541</v>
-      </c>
-      <c r="C182" t="s">
-        <v>542</v>
-      </c>
-      <c r="D182" t="s">
-        <v>326</v>
-      </c>
-      <c r="E182" t="s">
-        <v>543</v>
-      </c>
-      <c r="F182" t="s">
-        <v>544</v>
-      </c>
-      <c r="G182" t="s">
-        <v>536</v>
-      </c>
-      <c r="I182">
-        <v>0</v>
-      </c>
-      <c r="J182" t="s">
-        <v>48</v>
-      </c>
-      <c r="K182" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>531</v>
-      </c>
-      <c r="B183" t="s">
-        <v>545</v>
-      </c>
-      <c r="C183" t="s">
-        <v>542</v>
-      </c>
-      <c r="D183" t="s">
-        <v>326</v>
-      </c>
-      <c r="E183" t="s">
-        <v>546</v>
-      </c>
-      <c r="F183" t="s">
-        <v>544</v>
-      </c>
-      <c r="G183" t="s">
-        <v>536</v>
-      </c>
-      <c r="I183">
-        <v>0</v>
-      </c>
-      <c r="J183" t="s">
-        <v>48</v>
-      </c>
-      <c r="K183" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>531</v>
-      </c>
-      <c r="B184" t="s">
-        <v>547</v>
-      </c>
-      <c r="C184" t="s">
-        <v>548</v>
-      </c>
-      <c r="D184" t="s">
-        <v>333</v>
-      </c>
-      <c r="E184" t="s">
-        <v>543</v>
-      </c>
-      <c r="F184" t="s">
-        <v>544</v>
-      </c>
-      <c r="G184" t="s">
-        <v>536</v>
-      </c>
-      <c r="I184">
-        <v>0</v>
-      </c>
-      <c r="J184" t="s">
-        <v>48</v>
-      </c>
-      <c r="K184" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>531</v>
-      </c>
-      <c r="B185" t="s">
-        <v>549</v>
-      </c>
-      <c r="C185" t="s">
-        <v>548</v>
-      </c>
-      <c r="D185" t="s">
-        <v>333</v>
-      </c>
-      <c r="E185" t="s">
-        <v>546</v>
-      </c>
-      <c r="F185" t="s">
-        <v>544</v>
-      </c>
-      <c r="G185" t="s">
-        <v>536</v>
-      </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
-      <c r="J185" t="s">
-        <v>48</v>
-      </c>
-      <c r="K185" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>531</v>
-      </c>
-      <c r="B186" t="s">
-        <v>550</v>
-      </c>
-      <c r="C186" t="s">
-        <v>551</v>
-      </c>
-      <c r="D186" t="s">
-        <v>326</v>
-      </c>
-      <c r="E186" t="s">
-        <v>552</v>
-      </c>
-      <c r="F186" t="s">
-        <v>544</v>
-      </c>
-      <c r="G186" t="s">
-        <v>536</v>
-      </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
-      <c r="J186" t="s">
-        <v>189</v>
-      </c>
-      <c r="K186" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>531</v>
-      </c>
-      <c r="B187" t="s">
-        <v>553</v>
-      </c>
-      <c r="C187" t="s">
-        <v>551</v>
-      </c>
-      <c r="D187" t="s">
-        <v>326</v>
-      </c>
-      <c r="E187" t="s">
-        <v>554</v>
-      </c>
-      <c r="F187" t="s">
-        <v>544</v>
-      </c>
-      <c r="G187" t="s">
-        <v>536</v>
-      </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
-      <c r="J187" t="s">
-        <v>189</v>
-      </c>
-      <c r="K187" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>531</v>
-      </c>
-      <c r="B188" t="s">
-        <v>555</v>
-      </c>
-      <c r="C188" t="s">
-        <v>556</v>
-      </c>
-      <c r="D188" t="s">
-        <v>333</v>
-      </c>
-      <c r="E188" t="s">
-        <v>552</v>
-      </c>
-      <c r="F188" t="s">
-        <v>544</v>
-      </c>
-      <c r="G188" t="s">
-        <v>536</v>
-      </c>
-      <c r="I188">
-        <v>0</v>
-      </c>
-      <c r="J188" t="s">
-        <v>189</v>
-      </c>
-      <c r="K188" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>531</v>
-      </c>
-      <c r="B189" t="s">
-        <v>557</v>
-      </c>
-      <c r="C189" t="s">
-        <v>556</v>
-      </c>
-      <c r="D189" t="s">
-        <v>333</v>
-      </c>
-      <c r="E189" t="s">
-        <v>554</v>
-      </c>
-      <c r="F189" t="s">
-        <v>544</v>
-      </c>
-      <c r="G189" t="s">
-        <v>536</v>
-      </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
-      <c r="J189" t="s">
-        <v>189</v>
-      </c>
-      <c r="K189" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>531</v>
-      </c>
-      <c r="B190" t="s">
-        <v>558</v>
-      </c>
-      <c r="C190" t="s">
-        <v>559</v>
-      </c>
-      <c r="D190" t="s">
-        <v>560</v>
-      </c>
-      <c r="E190" t="s">
-        <v>561</v>
-      </c>
-      <c r="F190" t="s">
-        <v>562</v>
-      </c>
-      <c r="G190" t="s">
-        <v>540</v>
-      </c>
-      <c r="I190">
-        <v>0</v>
-      </c>
-      <c r="J190" t="s">
-        <v>189</v>
-      </c>
-      <c r="K190" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>531</v>
-      </c>
-      <c r="B191" t="s">
-        <v>563</v>
-      </c>
-      <c r="C191" t="s">
-        <v>564</v>
-      </c>
-      <c r="D191" t="s">
-        <v>565</v>
-      </c>
-      <c r="E191" t="s">
-        <v>561</v>
-      </c>
-      <c r="F191" t="s">
-        <v>562</v>
-      </c>
-      <c r="G191" t="s">
-        <v>540</v>
-      </c>
-      <c r="I191">
-        <v>0</v>
-      </c>
-      <c r="J191" t="s">
-        <v>189</v>
-      </c>
-      <c r="K191" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>531</v>
-      </c>
-      <c r="B192" t="s">
-        <v>566</v>
-      </c>
-      <c r="C192" t="s">
-        <v>567</v>
-      </c>
-      <c r="D192" t="s">
-        <v>568</v>
-      </c>
-      <c r="E192" t="s">
-        <v>561</v>
-      </c>
-      <c r="F192" t="s">
-        <v>562</v>
-      </c>
-      <c r="G192" t="s">
-        <v>540</v>
-      </c>
-      <c r="I192">
-        <v>0</v>
-      </c>
-      <c r="J192" t="s">
-        <v>189</v>
-      </c>
-      <c r="K192" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>531</v>
-      </c>
-      <c r="B193" t="s">
-        <v>569</v>
-      </c>
-      <c r="C193" t="s">
-        <v>570</v>
-      </c>
-      <c r="D193" t="s">
-        <v>571</v>
-      </c>
-      <c r="E193" t="s">
-        <v>572</v>
-      </c>
-      <c r="F193" t="s">
-        <v>573</v>
-      </c>
-      <c r="G193" t="s">
-        <v>574</v>
-      </c>
-      <c r="I193">
-        <v>0</v>
-      </c>
-      <c r="J193" t="s">
-        <v>15</v>
-      </c>
-      <c r="K193" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>531</v>
-      </c>
-      <c r="B194" t="s">
-        <v>575</v>
-      </c>
-      <c r="C194" t="s">
-        <v>576</v>
-      </c>
-      <c r="D194" t="s">
-        <v>577</v>
-      </c>
-      <c r="E194" t="s">
-        <v>578</v>
-      </c>
-      <c r="F194" t="s">
-        <v>573</v>
-      </c>
-      <c r="G194" t="s">
-        <v>574</v>
-      </c>
-      <c r="I194">
-        <v>0</v>
-      </c>
-      <c r="J194" t="s">
-        <v>15</v>
-      </c>
-      <c r="K194" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>531</v>
-      </c>
-      <c r="B195" t="s">
-        <v>579</v>
-      </c>
-      <c r="C195" t="s">
-        <v>580</v>
-      </c>
-      <c r="D195" t="s">
-        <v>581</v>
-      </c>
-      <c r="E195" t="s">
-        <v>578</v>
-      </c>
-      <c r="F195" t="s">
-        <v>573</v>
-      </c>
-      <c r="G195" t="s">
-        <v>574</v>
-      </c>
-      <c r="I195">
-        <v>0</v>
-      </c>
-      <c r="J195" t="s">
-        <v>48</v>
-      </c>
-      <c r="K195" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>531</v>
-      </c>
-      <c r="B196" t="s">
-        <v>582</v>
-      </c>
-      <c r="C196" t="s">
-        <v>583</v>
-      </c>
-      <c r="D196" t="s">
-        <v>584</v>
-      </c>
-      <c r="E196" t="s">
-        <v>585</v>
-      </c>
-      <c r="F196" t="s">
-        <v>573</v>
-      </c>
-      <c r="G196" t="s">
-        <v>574</v>
-      </c>
-      <c r="I196">
-        <v>0</v>
-      </c>
-      <c r="J196" t="s">
-        <v>15</v>
-      </c>
-      <c r="K196" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>586</v>
-      </c>
-      <c r="B197" t="s">
-        <v>593</v>
-      </c>
-      <c r="C197" t="s">
-        <v>594</v>
-      </c>
-      <c r="D197" t="s">
-        <v>595</v>
-      </c>
-      <c r="E197" t="s">
-        <v>590</v>
-      </c>
-      <c r="F197" t="s">
-        <v>596</v>
-      </c>
-      <c r="G197" t="s">
-        <v>597</v>
-      </c>
-      <c r="I197">
-        <v>0</v>
-      </c>
-      <c r="J197" t="s">
-        <v>189</v>
-      </c>
-      <c r="K197" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>586</v>
-      </c>
-      <c r="B198" t="s">
-        <v>598</v>
-      </c>
-      <c r="C198" t="s">
-        <v>599</v>
-      </c>
-      <c r="D198" t="s">
-        <v>333</v>
-      </c>
-      <c r="E198" t="s">
-        <v>600</v>
-      </c>
-      <c r="F198" t="s">
-        <v>601</v>
-      </c>
-      <c r="G198" t="s">
-        <v>536</v>
-      </c>
-      <c r="I198">
-        <v>0</v>
-      </c>
-      <c r="J198" t="s">
-        <v>189</v>
-      </c>
-      <c r="K198" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>586</v>
-      </c>
-      <c r="B199" t="s">
-        <v>602</v>
-      </c>
-      <c r="C199" t="s">
-        <v>603</v>
-      </c>
-      <c r="D199" t="s">
-        <v>333</v>
-      </c>
-      <c r="E199" t="s">
-        <v>327</v>
-      </c>
-      <c r="F199" t="s">
-        <v>539</v>
-      </c>
-      <c r="G199" t="s">
-        <v>540</v>
-      </c>
-      <c r="I199">
-        <v>0</v>
-      </c>
-      <c r="J199" t="s">
-        <v>189</v>
-      </c>
-      <c r="K199" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>586</v>
-      </c>
-      <c r="B200" t="s">
-        <v>604</v>
-      </c>
-      <c r="C200" t="s">
-        <v>605</v>
-      </c>
-      <c r="D200" t="s">
-        <v>333</v>
-      </c>
-      <c r="E200" t="s">
-        <v>330</v>
-      </c>
-      <c r="F200" t="s">
-        <v>539</v>
-      </c>
-      <c r="G200" t="s">
-        <v>540</v>
-      </c>
-      <c r="I200">
-        <v>0</v>
-      </c>
-      <c r="J200" t="s">
-        <v>189</v>
-      </c>
-      <c r="K200" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>586</v>
-      </c>
-      <c r="B201" t="s">
-        <v>606</v>
-      </c>
-      <c r="C201" t="s">
-        <v>607</v>
-      </c>
-      <c r="D201" t="s">
-        <v>608</v>
-      </c>
-      <c r="E201" t="s">
-        <v>185</v>
-      </c>
-      <c r="F201" t="s">
-        <v>609</v>
-      </c>
-      <c r="G201" t="s">
-        <v>426</v>
-      </c>
-      <c r="I201">
-        <v>0</v>
-      </c>
-      <c r="J201" t="s">
-        <v>189</v>
-      </c>
-      <c r="K201" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
-        <v>586</v>
-      </c>
-      <c r="B202" t="s">
-        <v>610</v>
-      </c>
-      <c r="C202" t="s">
-        <v>611</v>
-      </c>
-      <c r="D202" t="s">
-        <v>612</v>
-      </c>
-      <c r="E202" t="s">
-        <v>185</v>
-      </c>
-      <c r="F202" t="s">
-        <v>609</v>
-      </c>
-      <c r="G202" t="s">
-        <v>426</v>
-      </c>
-      <c r="I202">
-        <v>0</v>
-      </c>
-      <c r="J202" t="s">
-        <v>189</v>
-      </c>
-      <c r="K202" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>586</v>
-      </c>
-      <c r="B203" t="s">
-        <v>613</v>
-      </c>
-      <c r="C203" t="s">
-        <v>611</v>
-      </c>
-      <c r="D203" t="s">
-        <v>612</v>
-      </c>
-      <c r="E203" t="s">
-        <v>614</v>
-      </c>
-      <c r="F203" t="s">
-        <v>609</v>
-      </c>
-      <c r="G203" t="s">
-        <v>426</v>
-      </c>
-      <c r="I203">
-        <v>0</v>
-      </c>
-      <c r="J203" t="s">
-        <v>189</v>
-      </c>
-      <c r="K203" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
-        <v>586</v>
-      </c>
-      <c r="B204" t="s">
-        <v>615</v>
-      </c>
-      <c r="C204" t="s">
-        <v>616</v>
-      </c>
-      <c r="D204" t="s">
-        <v>617</v>
-      </c>
-      <c r="E204" t="s">
-        <v>185</v>
-      </c>
-      <c r="F204" t="s">
-        <v>609</v>
-      </c>
-      <c r="G204" t="s">
-        <v>426</v>
-      </c>
-      <c r="I204">
-        <v>0</v>
-      </c>
-      <c r="J204" t="s">
-        <v>189</v>
-      </c>
-      <c r="K204" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>586</v>
-      </c>
-      <c r="B205" t="s">
-        <v>664</v>
-      </c>
-      <c r="C205" t="s">
-        <v>665</v>
-      </c>
-      <c r="D205" t="s">
-        <v>666</v>
-      </c>
-      <c r="E205" t="s">
-        <v>197</v>
-      </c>
-      <c r="F205" t="s">
-        <v>667</v>
-      </c>
-      <c r="G205" t="s">
-        <v>426</v>
-      </c>
-      <c r="I205">
-        <v>0</v>
-      </c>
-      <c r="J205" t="s">
-        <v>189</v>
-      </c>
-      <c r="K205" t="s">
-        <v>637</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K205" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K219" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>